--- a/BackTest/2019-10-27 BackTest TRX.xlsx
+++ b/BackTest/2019-10-27 BackTest TRX.xlsx
@@ -2411,17 +2411,13 @@
         <v>18.63333333333336</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="K58" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
@@ -2450,22 +2446,14 @@
         <v>18.60000000000003</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="K59" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2493,22 +2481,14 @@
         <v>18.56666666666669</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="K60" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2544,12 +2524,10 @@
       <c r="J61" t="n">
         <v>18.6</v>
       </c>
-      <c r="K61" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M61" t="n">
@@ -2585,11 +2563,9 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="K62" t="n">
-        <v>18.6</v>
-      </c>
+        <v>18.5</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2628,11 +2604,9 @@
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K63" t="n">
         <v>18.6</v>
       </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2671,11 +2645,9 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K64" t="n">
-        <v>18.6</v>
-      </c>
+        <v>18.8</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2708,17 +2680,13 @@
         <v>18.73333333333336</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="K65" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2751,17 +2719,13 @@
         <v>18.66666666666669</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K66" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2794,17 +2758,13 @@
         <v>18.66666666666669</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K67" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2837,17 +2797,13 @@
         <v>18.66666666666669</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K68" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2880,17 +2836,13 @@
         <v>18.70000000000002</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K69" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2923,17 +2875,13 @@
         <v>18.70000000000002</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K70" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2966,17 +2914,13 @@
         <v>18.70000000000002</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K71" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3009,17 +2953,13 @@
         <v>18.70000000000002</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K72" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3052,17 +2992,13 @@
         <v>18.70000000000002</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K73" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3095,17 +3031,13 @@
         <v>18.70000000000002</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K74" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3138,17 +3070,13 @@
         <v>18.70000000000002</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K75" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3181,17 +3109,13 @@
         <v>18.73333333333335</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K76" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3224,17 +3148,13 @@
         <v>18.70000000000002</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K77" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3267,17 +3187,13 @@
         <v>18.66666666666669</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="K78" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3310,17 +3226,13 @@
         <v>18.60000000000003</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="K79" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3353,17 +3265,13 @@
         <v>18.63333333333336</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K80" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3396,17 +3304,13 @@
         <v>18.63333333333336</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="K81" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3439,17 +3343,13 @@
         <v>18.66666666666669</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="K82" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3482,17 +3382,13 @@
         <v>18.63333333333336</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="K83" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3525,17 +3421,13 @@
         <v>18.66666666666669</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K84" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3568,17 +3460,13 @@
         <v>18.66666666666669</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K85" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3611,17 +3499,13 @@
         <v>18.70000000000002</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K86" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3654,17 +3538,13 @@
         <v>18.73333333333336</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="K87" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3697,17 +3577,13 @@
         <v>18.76666666666669</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="K88" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3740,17 +3616,13 @@
         <v>18.80000000000002</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="K89" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3783,17 +3655,13 @@
         <v>18.80000000000002</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="K90" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3826,17 +3694,13 @@
         <v>18.80000000000002</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="K91" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3869,17 +3733,13 @@
         <v>18.83333333333336</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="K92" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3912,17 +3772,13 @@
         <v>18.86666666666669</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="K93" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3961,9 +3817,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4002,9 +3856,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4043,9 +3895,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4084,9 +3934,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4125,9 +3973,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4166,9 +4012,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4207,9 +4051,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4248,9 +4090,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4289,9 +4129,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4330,9 +4168,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4371,9 +4207,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4412,9 +4246,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4453,9 +4285,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4494,9 +4324,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4535,9 +4363,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4576,9 +4402,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4617,9 +4441,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4658,9 +4480,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4699,9 +4519,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4740,9 +4558,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4781,9 +4597,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4822,9 +4636,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4863,9 +4675,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4904,9 +4714,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4945,9 +4753,7 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4986,9 +4792,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5027,9 +4831,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5068,9 +4870,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5109,9 +4909,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5150,9 +4948,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5191,9 +4987,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5232,9 +5026,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5273,9 +5065,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5314,9 +5104,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5355,9 +5143,7 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5396,9 +5182,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5437,9 +5221,7 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5478,9 +5260,7 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5519,9 +5299,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5560,9 +5338,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5601,9 +5377,7 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5642,9 +5416,7 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5683,9 +5455,7 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5724,9 +5494,7 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5765,9 +5533,7 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5806,9 +5572,7 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5847,9 +5611,7 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5888,9 +5650,7 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5929,9 +5689,7 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5970,9 +5728,7 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6011,9 +5767,7 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6052,9 +5806,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6093,9 +5845,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6134,9 +5884,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6175,9 +5923,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6216,9 +5962,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6257,9 +6001,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6298,9 +6040,7 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6339,9 +6079,7 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6380,9 +6118,7 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6421,9 +6157,7 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6462,9 +6196,7 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6503,9 +6235,7 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6544,9 +6274,7 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6585,9 +6313,7 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6626,9 +6352,7 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6667,9 +6391,7 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6708,9 +6430,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6749,9 +6469,7 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6790,9 +6508,7 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6831,9 +6547,7 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6872,9 +6586,7 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6913,9 +6625,7 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6954,9 +6664,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6995,9 +6703,7 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7036,9 +6742,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7077,9 +6781,7 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7118,9 +6820,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7159,9 +6859,7 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7200,9 +6898,7 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7241,9 +6937,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7282,9 +6976,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7323,9 +7015,7 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7364,9 +7054,7 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7405,9 +7093,7 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7446,9 +7132,7 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7487,9 +7171,7 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7528,9 +7210,7 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7569,9 +7249,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7610,9 +7288,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7651,9 +7327,7 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7692,9 +7366,7 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7733,9 +7405,7 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7774,9 +7444,7 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7815,9 +7483,7 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7856,9 +7522,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7897,9 +7561,7 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7938,9 +7600,7 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7979,9 +7639,7 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8020,9 +7678,7 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8061,9 +7717,7 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8102,9 +7756,7 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8143,9 +7795,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8184,9 +7834,7 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8225,9 +7873,7 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8266,9 +7912,7 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8307,9 +7951,7 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8348,9 +7990,7 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8389,9 +8029,7 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8430,9 +8068,7 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8471,9 +8107,7 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8512,9 +8146,7 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8553,9 +8185,7 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8594,9 +8224,7 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8635,9 +8263,7 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8676,9 +8302,7 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8717,9 +8341,7 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8758,9 +8380,7 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8799,9 +8419,7 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8840,9 +8458,7 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8881,9 +8497,7 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8922,9 +8536,7 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8963,9 +8575,7 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9004,9 +8614,7 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9045,9 +8653,7 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9086,9 +8692,7 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9127,9 +8731,7 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9168,9 +8770,7 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9209,9 +8809,7 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9250,9 +8848,7 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9291,9 +8887,7 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9332,9 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9373,9 +8965,7 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9414,9 +9004,7 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9455,9 +9043,7 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9496,9 +9082,7 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9537,9 +9121,7 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9578,9 +9160,7 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9619,9 +9199,7 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9660,9 +9238,7 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9701,9 +9277,7 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9742,9 +9316,7 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9783,9 +9355,7 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9824,9 +9394,7 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9865,9 +9433,7 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9906,9 +9472,7 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9947,9 +9511,7 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9988,9 +9550,7 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10029,9 +9589,7 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10070,9 +9628,7 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10111,9 +9667,7 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10152,9 +9706,7 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10193,9 +9745,7 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10234,9 +9784,7 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10275,9 +9823,7 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10316,9 +9862,7 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10357,9 +9901,7 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10398,9 +9940,7 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10439,9 +9979,7 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10480,9 +10018,7 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10521,9 +10057,7 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10562,9 +10096,7 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10603,9 +10135,7 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10644,9 +10174,7 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10685,9 +10213,7 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10726,9 +10252,7 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10767,9 +10291,7 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10808,9 +10330,7 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10849,9 +10369,7 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10890,9 +10408,7 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10931,9 +10447,7 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10972,9 +10486,7 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11013,9 +10525,7 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11054,9 +10564,7 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11095,9 +10603,7 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11136,9 +10642,7 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11177,9 +10681,7 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11218,9 +10720,7 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11259,9 +10759,7 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11300,9 +10798,7 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11341,9 +10837,7 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11382,9 +10876,7 @@
         <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11423,9 +10915,7 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11464,9 +10954,7 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11505,9 +10993,7 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11546,9 +11032,7 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11587,9 +11071,7 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11628,9 +11110,7 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11669,9 +11149,7 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11710,9 +11188,7 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11751,9 +11227,7 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11792,9 +11266,7 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11833,9 +11305,7 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11874,9 +11344,7 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11915,9 +11383,7 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11956,9 +11422,7 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11997,9 +11461,7 @@
         <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12038,9 +11500,7 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12079,9 +11539,7 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12120,9 +11578,7 @@
         <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12161,9 +11617,7 @@
         <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12202,9 +11656,7 @@
         <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12243,9 +11695,7 @@
         <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12284,9 +11734,7 @@
         <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12325,9 +11773,7 @@
         <v>0</v>
       </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12366,9 +11812,7 @@
         <v>0</v>
       </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12407,9 +11851,7 @@
         <v>0</v>
       </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12448,9 +11890,7 @@
         <v>0</v>
       </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12489,9 +11929,7 @@
         <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12530,9 +11968,7 @@
         <v>0</v>
       </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12571,9 +12007,7 @@
         <v>0</v>
       </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12612,9 +12046,7 @@
         <v>0</v>
       </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12653,9 +12085,7 @@
         <v>0</v>
       </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12694,9 +12124,7 @@
         <v>0</v>
       </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12735,9 +12163,7 @@
         <v>0</v>
       </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12776,9 +12202,7 @@
         <v>0</v>
       </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12817,9 +12241,7 @@
         <v>0</v>
       </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12858,9 +12280,7 @@
         <v>0</v>
       </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12899,9 +12319,7 @@
         <v>0</v>
       </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12940,9 +12358,7 @@
         <v>0</v>
       </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12981,9 +12397,7 @@
         <v>0</v>
       </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13022,9 +12436,7 @@
         <v>0</v>
       </c>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13063,9 +12475,7 @@
         <v>0</v>
       </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13104,9 +12514,7 @@
         <v>0</v>
       </c>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13145,9 +12553,7 @@
         <v>0</v>
       </c>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13186,9 +12592,7 @@
         <v>0</v>
       </c>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13227,9 +12631,7 @@
         <v>0</v>
       </c>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13268,9 +12670,7 @@
         <v>0</v>
       </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13309,9 +12709,7 @@
         <v>0</v>
       </c>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13350,9 +12748,7 @@
         <v>0</v>
       </c>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13391,9 +12787,7 @@
         <v>0</v>
       </c>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13432,9 +12826,7 @@
         <v>0</v>
       </c>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13473,9 +12865,7 @@
         <v>0</v>
       </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13514,9 +12904,7 @@
         <v>0</v>
       </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13555,9 +12943,7 @@
         <v>0</v>
       </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13596,9 +12982,7 @@
         <v>0</v>
       </c>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13637,9 +13021,7 @@
         <v>0</v>
       </c>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13678,9 +13060,7 @@
         <v>0</v>
       </c>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13719,9 +13099,7 @@
         <v>0</v>
       </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13760,9 +13138,7 @@
         <v>0</v>
       </c>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13801,9 +13177,7 @@
         <v>0</v>
       </c>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13842,9 +13216,7 @@
         <v>0</v>
       </c>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13883,9 +13255,7 @@
         <v>0</v>
       </c>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13924,9 +13294,7 @@
         <v>0</v>
       </c>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13965,9 +13333,7 @@
         <v>0</v>
       </c>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14006,9 +13372,7 @@
         <v>0</v>
       </c>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14047,9 +13411,7 @@
         <v>0</v>
       </c>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14088,9 +13450,7 @@
         <v>0</v>
       </c>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14129,9 +13489,7 @@
         <v>0</v>
       </c>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14170,9 +13528,7 @@
         <v>0</v>
       </c>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14211,9 +13567,7 @@
         <v>0</v>
       </c>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14252,9 +13606,7 @@
         <v>0</v>
       </c>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14293,9 +13645,7 @@
         <v>0</v>
       </c>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14334,9 +13684,7 @@
         <v>0</v>
       </c>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14375,9 +13723,7 @@
         <v>0</v>
       </c>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14416,9 +13762,7 @@
         <v>0</v>
       </c>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14457,9 +13801,7 @@
         <v>0</v>
       </c>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14498,9 +13840,7 @@
         <v>0</v>
       </c>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14539,9 +13879,7 @@
         <v>0</v>
       </c>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14580,9 +13918,7 @@
         <v>0</v>
       </c>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14621,9 +13957,7 @@
         <v>0</v>
       </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14662,9 +13996,7 @@
         <v>0</v>
       </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14703,9 +14035,7 @@
         <v>0</v>
       </c>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14744,9 +14074,7 @@
         <v>0</v>
       </c>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14785,9 +14113,7 @@
         <v>0</v>
       </c>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14826,9 +14152,7 @@
         <v>0</v>
       </c>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14867,9 +14191,7 @@
         <v>0</v>
       </c>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14908,9 +14230,7 @@
         <v>0</v>
       </c>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14949,9 +14269,7 @@
         <v>0</v>
       </c>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14990,9 +14308,7 @@
         <v>0</v>
       </c>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15031,9 +14347,7 @@
         <v>0</v>
       </c>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15072,9 +14386,7 @@
         <v>0</v>
       </c>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15113,9 +14425,7 @@
         <v>0</v>
       </c>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15154,9 +14464,7 @@
         <v>0</v>
       </c>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15195,9 +14503,7 @@
         <v>0</v>
       </c>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15236,9 +14542,7 @@
         <v>0</v>
       </c>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15277,9 +14581,7 @@
         <v>0</v>
       </c>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15318,9 +14620,7 @@
         <v>0</v>
       </c>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15359,9 +14659,7 @@
         <v>0</v>
       </c>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15400,9 +14698,7 @@
         <v>0</v>
       </c>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15441,9 +14737,7 @@
         <v>0</v>
       </c>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15482,9 +14776,7 @@
         <v>0</v>
       </c>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15523,9 +14815,7 @@
         <v>0</v>
       </c>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15564,9 +14854,7 @@
         <v>0</v>
       </c>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15605,9 +14893,7 @@
         <v>0</v>
       </c>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15646,9 +14932,7 @@
         <v>0</v>
       </c>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15687,9 +14971,7 @@
         <v>0</v>
       </c>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15728,9 +15010,7 @@
         <v>0</v>
       </c>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15769,9 +15049,7 @@
         <v>0</v>
       </c>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15810,9 +15088,7 @@
         <v>0</v>
       </c>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15851,9 +15127,7 @@
         <v>0</v>
       </c>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15892,9 +15166,7 @@
         <v>0</v>
       </c>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15933,9 +15205,7 @@
         <v>0</v>
       </c>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15974,9 +15244,7 @@
         <v>0</v>
       </c>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16015,9 +15283,7 @@
         <v>0</v>
       </c>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16056,9 +15322,7 @@
         <v>0</v>
       </c>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16097,9 +15361,7 @@
         <v>0</v>
       </c>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16138,9 +15400,7 @@
         <v>0</v>
       </c>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16179,9 +15439,7 @@
         <v>0</v>
       </c>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16220,9 +15478,7 @@
         <v>0</v>
       </c>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16261,9 +15517,7 @@
         <v>0</v>
       </c>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16302,9 +15556,7 @@
         <v>0</v>
       </c>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16343,9 +15595,7 @@
         <v>0</v>
       </c>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16384,9 +15634,7 @@
         <v>0</v>
       </c>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16425,9 +15673,7 @@
         <v>0</v>
       </c>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16466,9 +15712,7 @@
         <v>0</v>
       </c>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16507,9 +15751,7 @@
         <v>0</v>
       </c>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16548,9 +15790,7 @@
         <v>0</v>
       </c>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16589,9 +15829,7 @@
         <v>0</v>
       </c>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16630,9 +15868,7 @@
         <v>0</v>
       </c>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16671,9 +15907,7 @@
         <v>0</v>
       </c>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16712,9 +15946,7 @@
         <v>0</v>
       </c>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16753,9 +15985,7 @@
         <v>0</v>
       </c>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16794,9 +16024,7 @@
         <v>0</v>
       </c>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16835,9 +16063,7 @@
         <v>0</v>
       </c>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16876,9 +16102,7 @@
         <v>0</v>
       </c>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16917,9 +16141,7 @@
         <v>0</v>
       </c>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16958,9 +16180,7 @@
         <v>0</v>
       </c>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16999,9 +16219,7 @@
         <v>0</v>
       </c>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17040,9 +16258,7 @@
         <v>0</v>
       </c>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17081,9 +16297,7 @@
         <v>0</v>
       </c>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17122,9 +16336,7 @@
         <v>0</v>
       </c>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17163,9 +16375,7 @@
         <v>0</v>
       </c>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17204,9 +16414,7 @@
         <v>0</v>
       </c>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17245,9 +16453,7 @@
         <v>0</v>
       </c>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17286,9 +16492,7 @@
         <v>0</v>
       </c>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17327,9 +16531,7 @@
         <v>0</v>
       </c>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17368,9 +16570,7 @@
         <v>0</v>
       </c>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17409,9 +16609,7 @@
         <v>0</v>
       </c>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17450,9 +16648,7 @@
         <v>0</v>
       </c>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17491,9 +16687,7 @@
         <v>0</v>
       </c>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17532,9 +16726,7 @@
         <v>0</v>
       </c>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17573,9 +16765,7 @@
         <v>0</v>
       </c>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17614,9 +16804,7 @@
         <v>0</v>
       </c>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17655,9 +16843,7 @@
         <v>0</v>
       </c>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17696,9 +16882,7 @@
         <v>0</v>
       </c>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17737,9 +16921,7 @@
         <v>0</v>
       </c>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17778,9 +16960,7 @@
         <v>0</v>
       </c>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17819,9 +16999,7 @@
         <v>0</v>
       </c>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17860,9 +17038,7 @@
         <v>0</v>
       </c>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17901,9 +17077,7 @@
         <v>0</v>
       </c>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17942,9 +17116,7 @@
         <v>0</v>
       </c>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17983,9 +17155,7 @@
         <v>0</v>
       </c>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18024,9 +17194,7 @@
         <v>0</v>
       </c>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18065,9 +17233,7 @@
         <v>0</v>
       </c>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18106,9 +17272,7 @@
         <v>0</v>
       </c>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18147,9 +17311,7 @@
         <v>0</v>
       </c>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18188,9 +17350,7 @@
         <v>0</v>
       </c>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18229,9 +17389,7 @@
         <v>0</v>
       </c>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18270,9 +17428,7 @@
         <v>0</v>
       </c>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18311,9 +17467,7 @@
         <v>0</v>
       </c>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18352,9 +17506,7 @@
         <v>0</v>
       </c>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18393,9 +17545,7 @@
         <v>0</v>
       </c>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18434,9 +17584,7 @@
         <v>0</v>
       </c>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18475,9 +17623,7 @@
         <v>0</v>
       </c>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18516,9 +17662,7 @@
         <v>0</v>
       </c>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18557,9 +17701,7 @@
         <v>0</v>
       </c>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18598,9 +17740,7 @@
         <v>0</v>
       </c>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18639,9 +17779,7 @@
         <v>0</v>
       </c>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18680,9 +17818,7 @@
         <v>0</v>
       </c>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18721,9 +17857,7 @@
         <v>0</v>
       </c>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18762,9 +17896,7 @@
         <v>0</v>
       </c>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18803,9 +17935,7 @@
         <v>0</v>
       </c>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18844,9 +17974,7 @@
         <v>0</v>
       </c>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18885,9 +18013,7 @@
         <v>0</v>
       </c>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18926,9 +18052,7 @@
         <v>0</v>
       </c>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18967,9 +18091,7 @@
         <v>0</v>
       </c>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19008,9 +18130,7 @@
         <v>0</v>
       </c>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19049,9 +18169,7 @@
         <v>0</v>
       </c>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19090,9 +18208,7 @@
         <v>0</v>
       </c>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19131,9 +18247,7 @@
         <v>0</v>
       </c>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19172,9 +18286,7 @@
         <v>0</v>
       </c>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19213,9 +18325,7 @@
         <v>0</v>
       </c>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19254,9 +18364,7 @@
         <v>0</v>
       </c>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19295,9 +18403,7 @@
         <v>0</v>
       </c>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19336,9 +18442,7 @@
         <v>0</v>
       </c>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19377,9 +18481,7 @@
         <v>0</v>
       </c>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19418,9 +18520,7 @@
         <v>0</v>
       </c>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19459,9 +18559,7 @@
         <v>0</v>
       </c>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19500,9 +18598,7 @@
         <v>0</v>
       </c>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19541,9 +18637,7 @@
         <v>0</v>
       </c>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19582,9 +18676,7 @@
         <v>0</v>
       </c>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19623,9 +18715,7 @@
         <v>0</v>
       </c>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19664,9 +18754,7 @@
         <v>0</v>
       </c>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19705,9 +18793,7 @@
         <v>0</v>
       </c>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19746,9 +18832,7 @@
         <v>0</v>
       </c>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19787,9 +18871,7 @@
         <v>0</v>
       </c>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19828,9 +18910,7 @@
         <v>0</v>
       </c>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19869,9 +18949,7 @@
         <v>0</v>
       </c>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19910,9 +18988,7 @@
         <v>0</v>
       </c>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19951,9 +19027,7 @@
         <v>0</v>
       </c>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19992,9 +19066,7 @@
         <v>0</v>
       </c>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20033,9 +19105,7 @@
         <v>0</v>
       </c>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20074,9 +19144,7 @@
         <v>0</v>
       </c>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20115,9 +19183,7 @@
         <v>0</v>
       </c>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20156,9 +19222,7 @@
         <v>0</v>
       </c>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20197,9 +19261,7 @@
         <v>0</v>
       </c>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20238,9 +19300,7 @@
         <v>0</v>
       </c>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20279,9 +19339,7 @@
         <v>0</v>
       </c>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20320,9 +19378,7 @@
         <v>0</v>
       </c>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20361,9 +19417,7 @@
         <v>0</v>
       </c>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20402,9 +19456,7 @@
         <v>0</v>
       </c>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20443,9 +19495,7 @@
         <v>0</v>
       </c>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20484,9 +19534,7 @@
         <v>0</v>
       </c>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20525,9 +19573,7 @@
         <v>0</v>
       </c>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20566,9 +19612,7 @@
         <v>0</v>
       </c>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20607,9 +19651,7 @@
         <v>0</v>
       </c>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20648,9 +19690,7 @@
         <v>0</v>
       </c>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20689,9 +19729,7 @@
         <v>0</v>
       </c>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20730,9 +19768,7 @@
         <v>0</v>
       </c>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20771,9 +19807,7 @@
         <v>0</v>
       </c>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20812,9 +19846,7 @@
         <v>0</v>
       </c>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20853,9 +19885,7 @@
         <v>0</v>
       </c>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20894,9 +19924,7 @@
         <v>0</v>
       </c>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20935,9 +19963,7 @@
         <v>0</v>
       </c>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20976,9 +20002,7 @@
         <v>0</v>
       </c>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21017,9 +20041,7 @@
         <v>0</v>
       </c>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21058,9 +20080,7 @@
         <v>0</v>
       </c>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21099,9 +20119,7 @@
         <v>0</v>
       </c>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21140,9 +20158,7 @@
         <v>0</v>
       </c>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21181,9 +20197,7 @@
         <v>0</v>
       </c>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21222,9 +20236,7 @@
         <v>0</v>
       </c>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21263,9 +20275,7 @@
         <v>0</v>
       </c>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21304,9 +20314,7 @@
         <v>0</v>
       </c>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21345,9 +20353,7 @@
         <v>0</v>
       </c>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21386,9 +20392,7 @@
         <v>0</v>
       </c>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21427,9 +20431,7 @@
         <v>0</v>
       </c>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21468,9 +20470,7 @@
         <v>0</v>
       </c>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21509,9 +20509,7 @@
         <v>0</v>
       </c>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21550,9 +20548,7 @@
         <v>0</v>
       </c>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21591,9 +20587,7 @@
         <v>0</v>
       </c>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21632,9 +20626,7 @@
         <v>0</v>
       </c>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21673,9 +20665,7 @@
         <v>0</v>
       </c>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21714,9 +20704,7 @@
         <v>0</v>
       </c>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21755,9 +20743,7 @@
         <v>0</v>
       </c>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21796,9 +20782,7 @@
         <v>0</v>
       </c>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21837,9 +20821,7 @@
         <v>0</v>
       </c>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21878,9 +20860,7 @@
         <v>0</v>
       </c>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21919,9 +20899,7 @@
         <v>0</v>
       </c>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21960,9 +20938,7 @@
         <v>0</v>
       </c>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22001,9 +20977,7 @@
         <v>0</v>
       </c>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22042,9 +21016,7 @@
         <v>0</v>
       </c>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22083,9 +21055,7 @@
         <v>0</v>
       </c>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22124,9 +21094,7 @@
         <v>0</v>
       </c>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22165,9 +21133,7 @@
         <v>0</v>
       </c>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22206,9 +21172,7 @@
         <v>0</v>
       </c>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22244,19 +21208,17 @@
         <v>0</v>
       </c>
       <c r="I540" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M540" t="n">
-        <v>1.048763440860215</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541">
@@ -22285,11 +21247,15 @@
         <v>0</v>
       </c>
       <c r="I541" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr"/>
-      <c r="L541" t="inlineStr"/>
+      <c r="L541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M541" t="n">
         <v>1</v>
       </c>
@@ -22320,11 +21286,15 @@
         <v>0</v>
       </c>
       <c r="I542" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr"/>
-      <c r="L542" t="inlineStr"/>
+      <c r="L542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M542" t="n">
         <v>1</v>
       </c>
@@ -22355,11 +21325,15 @@
         <v>0</v>
       </c>
       <c r="I543" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr"/>
-      <c r="L543" t="inlineStr"/>
+      <c r="L543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M543" t="n">
         <v>1</v>
       </c>
@@ -22394,7 +21368,11 @@
       </c>
       <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr"/>
-      <c r="L544" t="inlineStr"/>
+      <c r="L544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M544" t="n">
         <v>1</v>
       </c>
@@ -22429,7 +21407,11 @@
       </c>
       <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr"/>
-      <c r="L545" t="inlineStr"/>
+      <c r="L545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M545" t="n">
         <v>1</v>
       </c>
@@ -22460,14 +21442,16 @@
         <v>0</v>
       </c>
       <c r="I546" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr"/>
-      <c r="L546" t="inlineStr"/>
-      <c r="M546" t="n">
-        <v>1</v>
-      </c>
+      <c r="L546" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M546" t="inlineStr"/>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">

--- a/BackTest/2019-10-27 BackTest TRX.xlsx
+++ b/BackTest/2019-10-27 BackTest TRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1804,7 +1804,7 @@
         <v>-1591500.57769652</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-1732406.49169652</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -4279,14 +4279,10 @@
         <v>-4336725.21777626</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
-      </c>
-      <c r="I118" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="J118" t="n">
-        <v>18.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
@@ -4316,19 +4312,11 @@
         <v>-3219454.538876261</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
-      </c>
-      <c r="I119" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="J119" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4357,19 +4345,11 @@
         <v>-4889682.120376261</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
-      </c>
-      <c r="I120" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="J120" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4398,19 +4378,11 @@
         <v>-4887832.120376261</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
-      </c>
-      <c r="I121" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="J121" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4439,19 +4411,11 @@
         <v>-4721733.120376261</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
-      </c>
-      <c r="I122" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="J122" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4483,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4522,14 +4480,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4558,19 +4510,11 @@
         <v>-5021254.473876261</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
-      </c>
-      <c r="I125" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="J125" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4599,19 +4543,11 @@
         <v>-4908804.380676261</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
-      </c>
-      <c r="I126" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="J126" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4640,19 +4576,11 @@
         <v>-4908804.380676261</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
-      </c>
-      <c r="I127" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="J127" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4681,19 +4609,11 @@
         <v>-4908804.380676261</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
-      </c>
-      <c r="I128" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="J128" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4722,19 +4642,11 @@
         <v>-4908804.380676261</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
-      </c>
-      <c r="I129" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="J129" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4763,19 +4675,11 @@
         <v>-4908804.380676261</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
-      </c>
-      <c r="I130" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="J130" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4804,19 +4708,11 @@
         <v>-4908804.380676261</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
-      </c>
-      <c r="I131" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="J131" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4845,19 +4741,11 @@
         <v>-4908804.380676261</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
-      </c>
-      <c r="I132" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="J132" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4886,19 +4774,11 @@
         <v>-4908804.380676261</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
-      </c>
-      <c r="I133" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="J133" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4927,19 +4807,11 @@
         <v>-4908804.380676261</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
-      </c>
-      <c r="I134" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="J134" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4968,19 +4840,11 @@
         <v>-4864118.507025461</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
-      </c>
-      <c r="I135" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="J135" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5009,19 +4873,11 @@
         <v>-4864140.479525461</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
-      </c>
-      <c r="I136" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="J136" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5050,19 +4906,11 @@
         <v>-4864140.479525461</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
-      </c>
-      <c r="I137" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="J137" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5091,19 +4939,11 @@
         <v>-4864140.479525461</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
-      </c>
-      <c r="I138" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="J138" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5132,7 +4972,7 @@
         <v>-4858792.885942581</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>18.6</v>
@@ -5140,11 +4980,7 @@
       <c r="J139" t="n">
         <v>18.6</v>
       </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5173,7 +5009,7 @@
         <v>-4949759.434242581</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>18.7</v>
@@ -5183,7 +5019,7 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L140" t="n">
@@ -5214,7 +5050,7 @@
         <v>-4945036.941490181</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>18.6</v>
@@ -5224,7 +5060,7 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L141" t="n">
@@ -5255,7 +5091,7 @@
         <v>-5045037.738190181</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>18.7</v>
@@ -5296,7 +5132,7 @@
         <v>-4761347.898690181</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>18.6</v>
@@ -5337,7 +5173,7 @@
         <v>-4761347.898690181</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>18.7</v>
@@ -5378,7 +5214,7 @@
         <v>-4761347.898690181</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>18.7</v>
@@ -5419,7 +5255,7 @@
         <v>-4751347.898690181</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>18.7</v>
@@ -5460,7 +5296,7 @@
         <v>-4751347.898690181</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>18.8</v>
@@ -5501,11 +5337,9 @@
         <v>-4751347.898690181</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
-      </c>
-      <c r="I148" t="n">
-        <v>18.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
         <v>18.6</v>
       </c>
@@ -5542,11 +5376,9 @@
         <v>-4751347.898690181</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
-      </c>
-      <c r="I149" t="n">
-        <v>18.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
         <v>18.6</v>
       </c>
@@ -5583,11 +5415,9 @@
         <v>-4751347.898690181</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
-      </c>
-      <c r="I150" t="n">
-        <v>18.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
         <v>18.6</v>
       </c>
@@ -5624,11 +5454,9 @@
         <v>-4749710.898690181</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
-      </c>
-      <c r="I151" t="n">
-        <v>18.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
         <v>18.6</v>
       </c>
@@ -5665,11 +5493,9 @@
         <v>-4749710.898690181</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
-      </c>
-      <c r="I152" t="n">
-        <v>18.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
         <v>18.6</v>
       </c>
@@ -5706,11 +5532,9 @@
         <v>-4749710.898690181</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
-      </c>
-      <c r="I153" t="n">
-        <v>18.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
         <v>18.6</v>
       </c>
@@ -6176,7 +6000,7 @@
         <v>-4336500.307090181</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
         <v>18.9</v>
@@ -6217,7 +6041,7 @@
         <v>-4301380.652090181</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
         <v>18.8</v>
@@ -6258,7 +6082,7 @@
         <v>-4236380.652090181</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I167" t="n">
         <v>18.9</v>
@@ -6299,11 +6123,9 @@
         <v>-4236380.652090181</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
-      </c>
-      <c r="I168" t="n">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
         <v>18.6</v>
       </c>
@@ -6535,11 +6357,9 @@
         <v>-4319153.66779018</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
-      </c>
-      <c r="I174" t="n">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
         <v>18.6</v>
       </c>
@@ -6576,11 +6396,9 @@
         <v>-4319153.66779018</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
-      </c>
-      <c r="I175" t="n">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
         <v>18.6</v>
       </c>
@@ -6617,11 +6435,9 @@
         <v>-4319153.66779018</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
-      </c>
-      <c r="I176" t="n">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
         <v>18.6</v>
       </c>
@@ -6658,11 +6474,9 @@
         <v>-4319047.80399018</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
-      </c>
-      <c r="I177" t="n">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
         <v>18.6</v>
       </c>
@@ -6699,11 +6513,9 @@
         <v>-4329047.80399018</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
-      </c>
-      <c r="I178" t="n">
-        <v>19.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
         <v>18.6</v>
       </c>
@@ -6740,11 +6552,9 @@
         <v>-4329047.80399018</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
-      </c>
-      <c r="I179" t="n">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
         <v>18.6</v>
       </c>
@@ -6781,11 +6591,9 @@
         <v>-4329047.80399018</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
-      </c>
-      <c r="I180" t="n">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
         <v>18.6</v>
       </c>
@@ -6822,11 +6630,9 @@
         <v>-4297790.44879018</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
-      </c>
-      <c r="I181" t="n">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
         <v>18.6</v>
       </c>
@@ -6863,11 +6669,9 @@
         <v>-4297790.44879018</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
-      </c>
-      <c r="I182" t="n">
-        <v>19.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
         <v>18.6</v>
       </c>
@@ -6904,11 +6708,9 @@
         <v>-4297790.44879018</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
-      </c>
-      <c r="I183" t="n">
-        <v>19.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
         <v>18.6</v>
       </c>
@@ -6945,11 +6747,9 @@
         <v>-4297790.44879018</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
-      </c>
-      <c r="I184" t="n">
-        <v>19.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
         <v>18.6</v>
       </c>
@@ -6986,11 +6786,9 @@
         <v>-4297790.44879018</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
-      </c>
-      <c r="I185" t="n">
-        <v>19.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
         <v>18.6</v>
       </c>
@@ -7027,11 +6825,9 @@
         <v>-4297790.44879018</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
-      </c>
-      <c r="I186" t="n">
-        <v>19.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
         <v>18.6</v>
       </c>
@@ -7107,11 +6903,9 @@
         <v>-4645930.782390179</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
-      </c>
-      <c r="I188" t="n">
-        <v>19.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
         <v>18.6</v>
       </c>
@@ -7148,11 +6942,9 @@
         <v>-4645930.782390179</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
-      </c>
-      <c r="I189" t="n">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
         <v>18.6</v>
       </c>
@@ -7189,11 +6981,9 @@
         <v>-4667092.396890179</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
-      </c>
-      <c r="I190" t="n">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
         <v>18.6</v>
       </c>
@@ -8361,7 +8151,7 @@
         <v>-4945536.885590179</v>
       </c>
       <c r="H220" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
@@ -8369,11 +8159,11 @@
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L220" t="n">
-        <v>1.027258064516129</v>
+        <v>1</v>
       </c>
       <c r="M220" t="inlineStr"/>
     </row>
@@ -8400,11 +8190,17 @@
         <v>-4844436.885590179</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8436,8 +8232,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8469,8 +8271,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8499,11 +8307,17 @@
         <v>-4844436.885590179</v>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8532,11 +8346,17 @@
         <v>-4844436.885590179</v>
       </c>
       <c r="H225" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8565,11 +8385,17 @@
         <v>-4844436.885590179</v>
       </c>
       <c r="H226" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8598,11 +8424,17 @@
         <v>-4844436.885590179</v>
       </c>
       <c r="H227" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8631,11 +8463,17 @@
         <v>-4844436.885590179</v>
       </c>
       <c r="H228" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8664,11 +8502,17 @@
         <v>-4844436.885590179</v>
       </c>
       <c r="H229" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8697,11 +8541,17 @@
         <v>-4844436.885590179</v>
       </c>
       <c r="H230" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8730,11 +8580,17 @@
         <v>-4844436.885590179</v>
       </c>
       <c r="H231" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8763,11 +8619,17 @@
         <v>-4813651.473219049</v>
       </c>
       <c r="H232" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8796,11 +8658,17 @@
         <v>-4840308.473219049</v>
       </c>
       <c r="H233" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8829,11 +8697,17 @@
         <v>-4840308.473219049</v>
       </c>
       <c r="H234" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8862,11 +8736,17 @@
         <v>-4840308.473219049</v>
       </c>
       <c r="H235" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8895,11 +8775,17 @@
         <v>-4840308.473219049</v>
       </c>
       <c r="H236" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8928,11 +8814,17 @@
         <v>-4840308.473219049</v>
       </c>
       <c r="H237" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8964,8 +8856,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8997,8 +8895,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9030,8 +8934,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9063,8 +8973,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9096,8 +9012,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9129,8 +9051,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9159,11 +9087,17 @@
         <v>-4391919.486419049</v>
       </c>
       <c r="H244" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9192,11 +9126,17 @@
         <v>-4316800.153319049</v>
       </c>
       <c r="H245" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9225,11 +9165,17 @@
         <v>-4410519.333919048</v>
       </c>
       <c r="H246" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9258,11 +9204,17 @@
         <v>-4410519.333919048</v>
       </c>
       <c r="H247" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9291,11 +9243,17 @@
         <v>-4410519.333919048</v>
       </c>
       <c r="H248" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9324,11 +9282,17 @@
         <v>-4413266.064819048</v>
       </c>
       <c r="H249" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9357,11 +9321,17 @@
         <v>-4413266.064819048</v>
       </c>
       <c r="H250" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9393,8 +9363,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9426,8 +9402,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9459,8 +9441,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9492,8 +9480,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9525,8 +9519,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9558,8 +9558,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9591,8 +9597,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9624,8 +9636,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9657,8 +9675,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9690,8 +9714,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9723,8 +9753,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9756,8 +9792,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9789,8 +9831,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9822,8 +9870,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9855,8 +9909,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9888,8 +9948,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9921,8 +9987,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9954,8 +10026,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9987,8 +10065,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10020,8 +10104,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10053,8 +10143,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10086,8 +10182,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10119,8 +10221,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10152,8 +10260,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10182,11 +10296,17 @@
         <v>-5843531.583819049</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10215,11 +10335,17 @@
         <v>-5921008.886719049</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10251,8 +10377,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10284,8 +10416,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10317,8 +10455,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10350,8 +10494,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10383,8 +10533,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10416,8 +10572,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10449,8 +10611,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10482,8 +10650,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10515,8 +10689,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10548,8 +10728,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10581,8 +10767,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10614,8 +10806,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10647,8 +10845,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10680,8 +10884,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10713,8 +10923,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10746,8 +10962,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10779,8 +11001,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10812,8 +11040,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10845,8 +11079,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10878,8 +11118,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10911,8 +11157,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10944,8 +11196,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10977,8 +11235,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11010,8 +11274,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11043,8 +11313,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11076,8 +11352,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11109,8 +11391,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11142,8 +11430,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11175,8 +11469,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11208,8 +11508,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11241,8 +11547,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11274,8 +11586,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11307,8 +11625,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11340,8 +11664,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11373,8 +11703,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11406,8 +11742,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11439,8 +11781,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11472,8 +11820,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11505,8 +11859,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11538,8 +11898,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11571,8 +11937,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11604,8 +11976,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11637,8 +12015,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11670,8 +12054,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11703,8 +12093,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11736,8 +12132,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11769,8 +12171,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11802,8 +12210,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11835,8 +12249,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11865,15 +12285,17 @@
         <v>-7335731.967655906</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
-      </c>
-      <c r="I326" t="n">
-        <v>18.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="K326" t="inlineStr"/>
+        <v>18.6</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11906,11 +12328,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
-        <v>18.9</v>
+        <v>18.6</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L327" t="n">
@@ -11945,11 +12367,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
-        <v>18.9</v>
+        <v>18.6</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L328" t="n">
@@ -11983,8 +12405,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12016,8 +12444,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12046,11 +12480,19 @@
         <v>-7335731.967655906</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="J331" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12082,8 +12524,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12115,8 +12563,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12145,11 +12599,19 @@
         <v>-7479155.967655906</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I334" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="J334" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12181,8 +12643,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12211,11 +12679,19 @@
         <v>-7479155.967655906</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="J336" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12244,11 +12720,19 @@
         <v>-7477295.808955907</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="J337" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12280,8 +12764,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12313,8 +12803,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12343,11 +12839,19 @@
         <v>-7477596.720855907</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="J340" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12376,11 +12880,19 @@
         <v>-7477596.720855907</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="J341" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12409,11 +12921,19 @@
         <v>-7474870.424655907</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="J342" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12442,11 +12962,19 @@
         <v>-7474870.424655907</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="J343" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12475,11 +13003,19 @@
         <v>-7474870.424655907</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="J344" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12508,11 +13044,19 @@
         <v>-7474870.424655907</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="J345" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12544,8 +13088,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12574,11 +13124,19 @@
         <v>-7474870.424655907</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="J347" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12607,15 +13165,17 @@
         <v>-7474870.424655907</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I348" t="n">
         <v>18.9</v>
       </c>
-      <c r="J348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L348" t="n">
@@ -12646,10 +13206,14 @@
         <v>-7474870.424655907</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I349" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="J349" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12683,12 +13247,14 @@
         <v>-7474870.424655907</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I350" t="n">
         <v>18.9</v>
       </c>
-      <c r="J350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12722,12 +13288,14 @@
         <v>-7474870.424655907</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I351" t="n">
         <v>18.9</v>
       </c>
-      <c r="J351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12761,12 +13329,14 @@
         <v>-7474870.424655907</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I352" t="n">
         <v>18.9</v>
       </c>
-      <c r="J352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12800,10 +13370,14 @@
         <v>-7474870.424655907</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I353" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="J353" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12840,7 +13414,9 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12874,12 +13450,12 @@
         <v>-7474870.424655907</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
-      </c>
-      <c r="I355" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="J355" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12913,12 +13489,12 @@
         <v>-7474870.424655907</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
-      </c>
-      <c r="I356" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="J356" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12952,12 +13528,12 @@
         <v>-7477063.424555907</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
-      </c>
-      <c r="I357" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="J357" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12991,12 +13567,14 @@
         <v>-7473129.424555907</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I358" t="n">
         <v>18.8</v>
       </c>
-      <c r="J358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13030,12 +13608,14 @@
         <v>-7682012.337055907</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I359" t="n">
         <v>18.9</v>
       </c>
-      <c r="J359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13069,12 +13649,14 @@
         <v>-7682012.337055907</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I360" t="n">
         <v>18.8</v>
       </c>
-      <c r="J360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13108,10 +13690,14 @@
         <v>-7682012.337055907</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="J361" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13145,10 +13731,14 @@
         <v>-7682012.337055907</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="J362" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13182,12 +13772,14 @@
         <v>-7713597.557055906</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I363" t="n">
         <v>18.8</v>
       </c>
-      <c r="J363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13221,12 +13813,14 @@
         <v>-7713547.557055906</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I364" t="n">
         <v>18.7</v>
       </c>
-      <c r="J364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13260,12 +13854,14 @@
         <v>-7713547.557055906</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I365" t="n">
         <v>18.8</v>
       </c>
-      <c r="J365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13299,10 +13895,14 @@
         <v>-7349935.755255906</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I366" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="J366" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13336,10 +13936,14 @@
         <v>-7413239.558355906</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I367" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="J367" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13373,10 +13977,14 @@
         <v>-7413139.558355906</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I368" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="J368" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13410,10 +14018,14 @@
         <v>-7413139.558355906</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I369" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="J369" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13450,7 +14062,9 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13484,12 +14098,14 @@
         <v>-7419384.237455906</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I371" t="n">
         <v>18.8</v>
       </c>
-      <c r="J371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13526,7 +14142,9 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13560,10 +14178,14 @@
         <v>-7347145.237455906</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I373" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="J373" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13600,7 +14222,9 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13637,7 +14261,9 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13674,7 +14300,9 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13711,7 +14339,9 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13748,7 +14378,9 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13785,7 +14417,9 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13822,7 +14456,9 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13859,7 +14495,9 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13896,7 +14534,9 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13933,7 +14573,9 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13970,7 +14612,9 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14007,7 +14651,9 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14044,7 +14690,9 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14081,7 +14729,9 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14118,7 +14768,9 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14152,12 +14804,12 @@
         <v>-7429363.627155907</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
-      </c>
-      <c r="I389" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="J389" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14191,12 +14843,12 @@
         <v>-7429363.627155907</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
-      </c>
-      <c r="I390" t="n">
-        <v>19</v>
-      </c>
-      <c r="J390" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14233,7 +14885,9 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14267,12 +14921,12 @@
         <v>-7429363.627155907</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
-      </c>
-      <c r="I392" t="n">
-        <v>19</v>
-      </c>
-      <c r="J392" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14306,12 +14960,12 @@
         <v>-7429363.627155907</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
-      </c>
-      <c r="I393" t="n">
-        <v>19</v>
-      </c>
-      <c r="J393" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14345,12 +14999,12 @@
         <v>-7429363.627155907</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
-      </c>
-      <c r="I394" t="n">
-        <v>19</v>
-      </c>
-      <c r="J394" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14384,12 +15038,12 @@
         <v>-7429363.627155907</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
-      </c>
-      <c r="I395" t="n">
-        <v>19</v>
-      </c>
-      <c r="J395" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14423,12 +15077,12 @@
         <v>-7429363.627155907</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
-      </c>
-      <c r="I396" t="n">
-        <v>19</v>
-      </c>
-      <c r="J396" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14465,7 +15119,9 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14502,7 +15158,9 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14539,7 +15197,9 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14576,7 +15236,9 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14613,7 +15275,9 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14650,7 +15314,9 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14687,7 +15353,9 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14724,7 +15392,9 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14761,7 +15431,9 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14798,7 +15470,9 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14835,7 +15509,9 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14872,7 +15548,9 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14909,7 +15587,9 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14946,7 +15626,9 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14983,7 +15665,9 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15020,7 +15704,9 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15054,10 +15740,14 @@
         <v>-6918129.912855906</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="J413" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15091,10 +15781,14 @@
         <v>-6918129.912855906</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
-      </c>
-      <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I414" t="n">
+        <v>19</v>
+      </c>
+      <c r="J414" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15128,10 +15822,14 @@
         <v>-6919203.470655906</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I415" t="n">
+        <v>19</v>
+      </c>
+      <c r="J415" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15165,10 +15863,14 @@
         <v>-6919140.470655906</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
-      </c>
-      <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I416" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="J416" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15202,10 +15904,14 @@
         <v>-6919140.470655906</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
-      </c>
-      <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I417" t="n">
+        <v>19</v>
+      </c>
+      <c r="J417" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15239,12 +15945,12 @@
         <v>-6919140.470655906</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
-      </c>
-      <c r="I418" t="n">
-        <v>19</v>
-      </c>
-      <c r="J418" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15278,12 +15984,12 @@
         <v>-6919140.470655906</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
-      </c>
-      <c r="I419" t="n">
-        <v>19</v>
-      </c>
-      <c r="J419" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15317,12 +16023,14 @@
         <v>-6968833.698055906</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I420" t="n">
         <v>19</v>
       </c>
-      <c r="J420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15356,12 +16064,14 @@
         <v>-6968803.698055906</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I421" t="n">
         <v>18.9</v>
       </c>
-      <c r="J421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15395,12 +16105,14 @@
         <v>-6968803.698055906</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I422" t="n">
         <v>19</v>
       </c>
-      <c r="J422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15434,12 +16146,14 @@
         <v>-6968803.698055906</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I423" t="n">
         <v>19</v>
       </c>
-      <c r="J423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15473,12 +16187,14 @@
         <v>-6968773.698055906</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I424" t="n">
         <v>19</v>
       </c>
-      <c r="J424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15515,7 +16231,9 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15552,7 +16270,9 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15586,10 +16306,14 @@
         <v>-7466666.740755906</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I427" t="n">
+        <v>19</v>
+      </c>
+      <c r="J427" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15626,7 +16350,9 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15663,7 +16389,9 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15700,7 +16428,9 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15737,7 +16467,9 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15774,7 +16506,9 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15811,7 +16545,9 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15848,7 +16584,9 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15885,7 +16623,9 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15922,7 +16662,9 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15959,7 +16701,9 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15996,7 +16740,9 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16033,7 +16779,9 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16070,7 +16818,9 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16107,7 +16857,9 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16141,12 +16893,12 @@
         <v>-7277724.939655907</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
-      </c>
-      <c r="I442" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="J442" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16180,12 +16932,12 @@
         <v>-7277171.431855907</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
-      </c>
-      <c r="I443" t="n">
-        <v>19</v>
-      </c>
-      <c r="J443" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16219,12 +16971,12 @@
         <v>-7277171.431855907</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
-      </c>
-      <c r="I444" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="J444" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16258,12 +17010,12 @@
         <v>-7277171.431855907</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
-      </c>
-      <c r="I445" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="J445" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16297,12 +17049,12 @@
         <v>-7277587.067155907</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
-      </c>
-      <c r="I446" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="J446" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16336,12 +17088,12 @@
         <v>-7277587.067155907</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
-      </c>
-      <c r="I447" t="n">
-        <v>19</v>
-      </c>
-      <c r="J447" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16375,12 +17127,14 @@
         <v>-7185284.239955907</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I448" t="n">
         <v>19</v>
       </c>
-      <c r="J448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16417,7 +17171,9 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16454,7 +17210,9 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16488,10 +17246,14 @@
         <v>-7277508.142455908</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I451" t="n">
+        <v>19</v>
+      </c>
+      <c r="J451" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16528,7 +17290,9 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16562,10 +17326,14 @@
         <v>-7407979.889255907</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
-      </c>
-      <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I453" t="n">
+        <v>19</v>
+      </c>
+      <c r="J453" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16599,10 +17367,14 @@
         <v>-7474854.428055908</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I454" t="n">
+        <v>19</v>
+      </c>
+      <c r="J454" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16636,10 +17408,14 @@
         <v>-7437583.164903278</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I455" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="J455" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16673,10 +17449,14 @@
         <v>-7452596.899603277</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I456" t="n">
+        <v>19</v>
+      </c>
+      <c r="J456" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16710,10 +17490,14 @@
         <v>-7386504.847003277</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I457" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="J457" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16747,10 +17531,14 @@
         <v>-7404698.334203278</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I458" t="n">
+        <v>19</v>
+      </c>
+      <c r="J458" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16784,10 +17572,14 @@
         <v>-7404688.334203278</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I459" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="J459" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16824,7 +17616,9 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16861,7 +17655,9 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16898,7 +17694,9 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16932,12 +17730,14 @@
         <v>-8934046.938503278</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I463" t="n">
         <v>19</v>
       </c>
-      <c r="J463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16971,10 +17771,14 @@
         <v>-8934046.938503278</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>19</v>
+      </c>
+      <c r="J464" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17008,10 +17812,14 @@
         <v>-8934046.938503278</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>19</v>
+      </c>
+      <c r="J465" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17045,10 +17853,14 @@
         <v>-8934046.938503278</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>19</v>
+      </c>
+      <c r="J466" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17082,10 +17894,14 @@
         <v>-8934046.938503278</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I467" t="n">
+        <v>19</v>
+      </c>
+      <c r="J467" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17119,10 +17935,14 @@
         <v>-8934046.938503278</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>19</v>
+      </c>
+      <c r="J468" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17156,10 +17976,14 @@
         <v>-8934046.938503278</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
-      </c>
-      <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I469" t="n">
+        <v>19</v>
+      </c>
+      <c r="J469" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17193,10 +18017,14 @@
         <v>-8934046.938503278</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
-      </c>
-      <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I470" t="n">
+        <v>19</v>
+      </c>
+      <c r="J470" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17230,12 +18058,14 @@
         <v>-8934016.938503278</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I471" t="n">
         <v>19</v>
       </c>
-      <c r="J471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17272,7 +18102,9 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17309,7 +18141,9 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17346,7 +18180,9 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17383,7 +18219,9 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17420,7 +18258,9 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17457,7 +18297,9 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17491,12 +18333,12 @@
         <v>-8936463.938503278</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
-      </c>
-      <c r="I478" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="J478" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17533,7 +18375,9 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17567,12 +18411,14 @@
         <v>-8984278.301496468</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I480" t="n">
         <v>18.9</v>
       </c>
-      <c r="J480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17606,12 +18452,14 @@
         <v>-8984278.301496468</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I481" t="n">
         <v>19</v>
       </c>
-      <c r="J481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17645,12 +18493,14 @@
         <v>-8984278.301496468</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I482" t="n">
         <v>19</v>
       </c>
-      <c r="J482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17684,12 +18534,14 @@
         <v>-8984278.301496468</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I483" t="n">
         <v>19</v>
       </c>
-      <c r="J483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17723,12 +18575,14 @@
         <v>-9023563.575096469</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I484" t="n">
         <v>19</v>
       </c>
-      <c r="J484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17762,12 +18616,14 @@
         <v>-8837161.100596469</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I485" t="n">
         <v>18.9</v>
       </c>
-      <c r="J485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17801,12 +18657,14 @@
         <v>-8837161.100596469</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I486" t="n">
         <v>19</v>
       </c>
-      <c r="J486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17840,10 +18698,14 @@
         <v>-8836899.32049647</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
-      </c>
-      <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I487" t="n">
+        <v>19</v>
+      </c>
+      <c r="J487" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17880,7 +18742,9 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17917,7 +18781,9 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17951,10 +18817,14 @@
         <v>-9030057.16841951</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
-      </c>
-      <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I490" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="J490" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17991,7 +18861,9 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18028,7 +18900,9 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18065,7 +18939,9 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18102,7 +18978,9 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18139,7 +19017,9 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18173,10 +19053,14 @@
         <v>-9770918.913419509</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
-      </c>
-      <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I496" t="n">
+        <v>19</v>
+      </c>
+      <c r="J496" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18210,10 +19094,14 @@
         <v>-9770918.913419509</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
-      </c>
-      <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I497" t="n">
+        <v>19</v>
+      </c>
+      <c r="J497" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18247,10 +19135,14 @@
         <v>-9770918.913419509</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
-      </c>
-      <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I498" t="n">
+        <v>19</v>
+      </c>
+      <c r="J498" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18284,10 +19176,14 @@
         <v>-9770918.913419509</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
-      </c>
-      <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I499" t="n">
+        <v>19</v>
+      </c>
+      <c r="J499" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18321,10 +19217,14 @@
         <v>-9770918.913419509</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
-      </c>
-      <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I500" t="n">
+        <v>19</v>
+      </c>
+      <c r="J500" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18358,10 +19258,14 @@
         <v>-9770918.913419509</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
-      </c>
-      <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I501" t="n">
+        <v>19</v>
+      </c>
+      <c r="J501" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18395,10 +19299,14 @@
         <v>-9755143.99195355</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
-      </c>
-      <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I502" t="n">
+        <v>19</v>
+      </c>
+      <c r="J502" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18432,10 +19340,14 @@
         <v>-9755143.99195355</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
-      </c>
-      <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I503" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="J503" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18472,7 +19384,9 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18506,10 +19420,14 @@
         <v>-9755844.432153549</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
-      </c>
-      <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I505" t="n">
+        <v>19</v>
+      </c>
+      <c r="J505" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18543,10 +19461,14 @@
         <v>-9755844.432153549</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
-      </c>
-      <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I506" t="n">
+        <v>19</v>
+      </c>
+      <c r="J506" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18580,10 +19502,14 @@
         <v>-9755844.432153549</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
-      </c>
-      <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I507" t="n">
+        <v>19</v>
+      </c>
+      <c r="J507" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18617,10 +19543,14 @@
         <v>-9755844.432153549</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
-      </c>
-      <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I508" t="n">
+        <v>19</v>
+      </c>
+      <c r="J508" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18654,10 +19584,14 @@
         <v>-9755844.432153549</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
-      </c>
-      <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I509" t="n">
+        <v>19</v>
+      </c>
+      <c r="J509" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18691,10 +19625,14 @@
         <v>-9755844.432153549</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
-      </c>
-      <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I510" t="n">
+        <v>19</v>
+      </c>
+      <c r="J510" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18728,12 +19666,14 @@
         <v>-9755844.432153549</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I511" t="n">
         <v>19</v>
       </c>
-      <c r="J511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18767,10 +19707,14 @@
         <v>-9755844.432153549</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
-      </c>
-      <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I512" t="n">
+        <v>19</v>
+      </c>
+      <c r="J512" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18804,10 +19748,14 @@
         <v>-9755844.432153549</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
-      </c>
-      <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I513" t="n">
+        <v>19</v>
+      </c>
+      <c r="J513" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18841,10 +19789,14 @@
         <v>-9755844.432153549</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
-      </c>
-      <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I514" t="n">
+        <v>19</v>
+      </c>
+      <c r="J514" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18878,10 +19830,14 @@
         <v>-9755844.432153549</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
-      </c>
-      <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I515" t="n">
+        <v>19</v>
+      </c>
+      <c r="J515" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18915,10 +19871,14 @@
         <v>-9755844.432153549</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
-      </c>
-      <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I516" t="n">
+        <v>19</v>
+      </c>
+      <c r="J516" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18952,10 +19912,14 @@
         <v>-9755844.432153549</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
-      </c>
-      <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I517" t="n">
+        <v>19</v>
+      </c>
+      <c r="J517" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18989,10 +19953,14 @@
         <v>-9755844.432153549</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
-      </c>
-      <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I518" t="n">
+        <v>19</v>
+      </c>
+      <c r="J518" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19026,10 +19994,14 @@
         <v>-9755844.432153549</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
-      </c>
-      <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I519" t="n">
+        <v>19</v>
+      </c>
+      <c r="J519" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19063,10 +20035,14 @@
         <v>-9755844.432153549</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
-      </c>
-      <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I520" t="n">
+        <v>19</v>
+      </c>
+      <c r="J520" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19100,10 +20076,14 @@
         <v>-9755844.432153549</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
-      </c>
-      <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I521" t="n">
+        <v>19</v>
+      </c>
+      <c r="J521" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19137,10 +20117,14 @@
         <v>-9755844.432153549</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
-      </c>
-      <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I522" t="n">
+        <v>19</v>
+      </c>
+      <c r="J522" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19174,10 +20158,14 @@
         <v>-9755844.432153549</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
-      </c>
-      <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I523" t="n">
+        <v>19</v>
+      </c>
+      <c r="J523" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19211,10 +20199,14 @@
         <v>-9755844.432153549</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
-      </c>
-      <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I524" t="n">
+        <v>19</v>
+      </c>
+      <c r="J524" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19248,10 +20240,14 @@
         <v>-9755844.432153549</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
-      </c>
-      <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I525" t="n">
+        <v>19</v>
+      </c>
+      <c r="J525" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19285,10 +20281,14 @@
         <v>-9755844.432153549</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
-      </c>
-      <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I526" t="n">
+        <v>19</v>
+      </c>
+      <c r="J526" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19322,10 +20322,14 @@
         <v>-9755844.432153549</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
-      </c>
-      <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I527" t="n">
+        <v>19</v>
+      </c>
+      <c r="J527" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19359,10 +20363,14 @@
         <v>-9730600.00195355</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
-      </c>
-      <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I528" t="n">
+        <v>19</v>
+      </c>
+      <c r="J528" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19399,7 +20407,9 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19436,7 +20446,9 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19473,7 +20485,9 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19510,7 +20524,9 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19544,10 +20560,14 @@
         <v>-9090867.55415355</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
-      </c>
-      <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I533" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="J533" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19584,7 +20604,9 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19618,10 +20640,14 @@
         <v>-8811286.961353552</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
-      </c>
-      <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I535" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="J535" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19658,7 +20684,9 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19695,7 +20723,9 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19732,7 +20762,9 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19766,10 +20798,14 @@
         <v>-8834804.013353551</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
-      </c>
-      <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I539" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="J539" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19806,7 +20842,9 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19843,7 +20881,9 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19880,7 +20920,9 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19914,10 +20956,14 @@
         <v>-8859799.013353551</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
-      </c>
-      <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I543" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J543" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19954,7 +21000,9 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19988,10 +21036,14 @@
         <v>-8859799.013353551</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
-      </c>
-      <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I545" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J545" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20025,10 +21077,14 @@
         <v>-8859799.013353551</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
-      </c>
-      <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I546" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J546" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20062,10 +21118,14 @@
         <v>-8859799.013353551</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
-      </c>
-      <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I547" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J547" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20099,10 +21159,14 @@
         <v>-8859799.013353551</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
-      </c>
-      <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I548" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J548" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20136,10 +21200,14 @@
         <v>-8854617.66625355</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
-      </c>
-      <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I549" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J549" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20173,10 +21241,14 @@
         <v>-8854617.66625355</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
-      </c>
-      <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I550" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="J550" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20210,10 +21282,14 @@
         <v>-8854617.66625355</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
-      </c>
-      <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I551" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="J551" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20247,10 +21323,14 @@
         <v>-8855017.66625355</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
-      </c>
-      <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I552" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="J552" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20284,10 +21364,14 @@
         <v>-8855017.66625355</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
-      </c>
-      <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I553" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J553" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20321,10 +21405,14 @@
         <v>-8855017.66625355</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
-      </c>
-      <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I554" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J554" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20358,10 +21446,14 @@
         <v>-8855017.66625355</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
-      </c>
-      <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I555" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J555" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20395,10 +21487,14 @@
         <v>-8855017.66625355</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
-      </c>
-      <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I556" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J556" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20432,10 +21528,14 @@
         <v>-8855017.66625355</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
-      </c>
-      <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I557" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J557" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20469,12 +21569,14 @@
         <v>-8855017.66625355</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I558" t="n">
         <v>19.2</v>
       </c>
-      <c r="J558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20508,10 +21610,14 @@
         <v>-8855017.66625355</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
-      </c>
-      <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I559" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J559" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20545,10 +21651,14 @@
         <v>-8928664.428753549</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
-      </c>
-      <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I560" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J560" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20582,10 +21692,14 @@
         <v>-8928664.428753549</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
-      </c>
-      <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I561" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="J561" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20619,10 +21733,14 @@
         <v>-8928664.428753549</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
-      </c>
-      <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I562" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="J562" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20656,10 +21774,14 @@
         <v>-8928664.428753549</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
-      </c>
-      <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I563" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="J563" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20693,10 +21815,14 @@
         <v>-8928664.428753549</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
-      </c>
-      <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I564" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="J564" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20730,10 +21856,14 @@
         <v>-8928664.428753549</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
-      </c>
-      <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I565" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="J565" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20767,10 +21897,14 @@
         <v>-9018388.011153549</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
-      </c>
-      <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I566" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="J566" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20804,10 +21938,14 @@
         <v>-9018339.469553549</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
-      </c>
-      <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I567" t="n">
+        <v>19</v>
+      </c>
+      <c r="J567" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20841,10 +21979,14 @@
         <v>-9167947.048453549</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
-      </c>
-      <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I568" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J568" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20878,10 +22020,14 @@
         <v>-9167947.048453549</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
-      </c>
-      <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I569" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="J569" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20915,10 +22061,14 @@
         <v>-9167947.048453549</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
-      </c>
-      <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I570" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="J570" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20952,10 +22102,14 @@
         <v>-9167937.048453549</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
-      </c>
-      <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I571" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="J571" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20989,10 +22143,14 @@
         <v>-9177702.272553548</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
-      </c>
-      <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I572" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J572" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21026,10 +22184,14 @@
         <v>-8979700.208353547</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
-      </c>
-      <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I573" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="J573" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21063,10 +22225,14 @@
         <v>-8979700.208353547</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
-      </c>
-      <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I574" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J574" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21100,10 +22266,14 @@
         <v>-8979700.208353547</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
-      </c>
-      <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I575" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J575" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21137,10 +22307,14 @@
         <v>-8979700.208353547</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
-      </c>
-      <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I576" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J576" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21174,10 +22348,14 @@
         <v>-8979700.208353547</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
-      </c>
-      <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I577" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J577" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21211,10 +22389,14 @@
         <v>-8979700.208353547</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
-      </c>
-      <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I578" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J578" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21248,10 +22430,14 @@
         <v>-8979700.208353547</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
-      </c>
-      <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I579" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J579" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21285,10 +22471,14 @@
         <v>-8879700.208353547</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
-      </c>
-      <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I580" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J580" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21322,10 +22512,14 @@
         <v>-8879700.208353547</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
-      </c>
-      <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I581" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="J581" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K581" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21362,7 +22556,9 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K582" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21396,10 +22592,14 @@
         <v>-9016465.173253547</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
-      </c>
-      <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I583" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J583" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21433,10 +22633,14 @@
         <v>-9016465.173253547</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
-      </c>
-      <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I584" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J584" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21470,10 +22674,14 @@
         <v>-9016465.173253547</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
-      </c>
-      <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I585" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J585" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21507,10 +22715,14 @@
         <v>-9010375.541353548</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
-      </c>
-      <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I586" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J586" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21544,10 +22756,14 @@
         <v>-8998628.015053548</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
-      </c>
-      <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I587" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="J587" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21584,7 +22800,9 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21621,7 +22839,9 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21658,7 +22878,9 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21695,7 +22917,9 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21732,7 +22956,9 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21769,7 +22995,9 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21806,7 +23034,9 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21843,7 +23073,9 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21880,7 +23112,9 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21917,7 +23151,9 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21954,7 +23190,9 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21991,7 +23229,9 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22028,7 +23268,9 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22065,7 +23307,9 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22102,7 +23346,9 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22139,7 +23385,9 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22176,7 +23424,9 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22213,7 +23463,9 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22247,16 +23499,20 @@
         <v>-6560399.735153548</v>
       </c>
       <c r="H606" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>18.6</v>
+      </c>
       <c r="K606" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L606" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L606" t="n">
+        <v>1</v>
+      </c>
       <c r="M606" t="inlineStr"/>
     </row>
     <row r="607">
@@ -22282,11 +23538,17 @@
         <v>-6560399.735153548</v>
       </c>
       <c r="H607" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -22318,8 +23580,14 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -22351,8 +23619,14 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -22381,11 +23655,17 @@
         <v>-5168723.064553548</v>
       </c>
       <c r="H610" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -22414,11 +23694,17 @@
         <v>-5168723.064553548</v>
       </c>
       <c r="H611" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -22447,11 +23733,17 @@
         <v>-5168723.064553548</v>
       </c>
       <c r="H612" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -22480,11 +23772,17 @@
         <v>-5061333.293853547</v>
       </c>
       <c r="H613" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -22516,8 +23814,14 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -22549,8 +23853,14 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -22582,8 +23892,14 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -22615,8 +23931,14 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -22648,8 +23970,14 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -22681,8 +24009,14 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -22714,8 +24048,14 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -22747,8 +24087,14 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -22780,8 +24126,14 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -22813,8 +24165,14 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -22846,8 +24204,14 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -22879,8 +24243,14 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -22912,8 +24282,14 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -22945,8 +24321,14 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -22978,8 +24360,14 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -23011,8 +24399,14 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -23044,8 +24438,14 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -23077,8 +24477,14 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -23110,8 +24516,14 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -23143,8 +24555,14 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -23176,8 +24594,14 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -23209,8 +24633,14 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -23239,15 +24669,23 @@
         <v>-5130657.622455559</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L636" t="n">
-        <v>1</v>
-      </c>
-      <c r="M636" t="inlineStr"/>
+        <v>1.059516129032258</v>
+      </c>
+      <c r="M636" t="n">
+        <v>1.037837837837838</v>
+      </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
@@ -23272,7 +24710,7 @@
         <v>-5109034.104955559</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -23305,7 +24743,7 @@
         <v>-5109034.104955559</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -23338,7 +24776,7 @@
         <v>-5212973.015055559</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -23371,7 +24809,7 @@
         <v>-4207824.310455559</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -23404,7 +24842,7 @@
         <v>-4207824.310455559</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -23437,7 +24875,7 @@
         <v>-4207824.310455559</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -23470,7 +24908,7 @@
         <v>-4207824.310455559</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -23503,7 +24941,7 @@
         <v>-4207824.310455559</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -23536,7 +24974,7 @@
         <v>-4207824.310455559</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -23569,7 +25007,7 @@
         <v>-4606959.447955559</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -23602,7 +25040,7 @@
         <v>-4382721.156655559</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -23635,7 +25073,7 @@
         <v>-4382721.156655559</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -23668,7 +25106,7 @@
         <v>-4382721.156655559</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -23701,7 +25139,7 @@
         <v>-4382721.156655559</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -23734,7 +25172,7 @@
         <v>-5216203.159140479</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -23767,7 +25205,7 @@
         <v>-5088762.922740479</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -23800,7 +25238,7 @@
         <v>-5088762.922740479</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -23833,7 +25271,7 @@
         <v>-5439059.116440479</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -23866,7 +25304,7 @@
         <v>-5479132.131740479</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -23899,7 +25337,7 @@
         <v>-5479132.131740479</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -23932,7 +25370,7 @@
         <v>-5479132.131740479</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -23965,7 +25403,7 @@
         <v>-4959346.698740479</v>
       </c>
       <c r="H658" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -23998,7 +25436,7 @@
         <v>-4959346.698740479</v>
       </c>
       <c r="H659" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -24031,7 +25469,7 @@
         <v>-4966941.366740478</v>
       </c>
       <c r="H660" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -24064,7 +25502,7 @@
         <v>-4966941.366740478</v>
       </c>
       <c r="H661" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -24097,7 +25535,7 @@
         <v>-4600453.464938458</v>
       </c>
       <c r="H662" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -24130,7 +25568,7 @@
         <v>-4663247.964938458</v>
       </c>
       <c r="H663" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -24163,7 +25601,7 @@
         <v>-4642870.294138458</v>
       </c>
       <c r="H664" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -24196,7 +25634,7 @@
         <v>-5125459.391938457</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -24229,7 +25667,7 @@
         <v>-5125459.391938457</v>
       </c>
       <c r="H666" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -24262,7 +25700,7 @@
         <v>-5052241.892038457</v>
       </c>
       <c r="H667" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -24295,7 +25733,7 @@
         <v>-5871345.803138457</v>
       </c>
       <c r="H668" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -24328,7 +25766,7 @@
         <v>-5871345.803138457</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -24361,7 +25799,7 @@
         <v>-11306244.42703846</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -24394,7 +25832,7 @@
         <v>-10172624.46803846</v>
       </c>
       <c r="H671" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -24427,7 +25865,7 @@
         <v>-10180782.10623846</v>
       </c>
       <c r="H672" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -24460,7 +25898,7 @@
         <v>-10061818.59864051</v>
       </c>
       <c r="H673" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -24669,6 +26107,6 @@
       <c r="M679" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest TRX.xlsx
+++ b/BackTest/2019-10-27 BackTest TRX.xlsx
@@ -1606,7 +1606,7 @@
         <v>-1790353.47269652</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-1790526.51609652</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-1591500.57769652</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-1591500.57769652</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-1732406.49169652</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-1732406.49169652</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-1781801.99939652</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-1914617.07849652</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-1914617.07849652</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-4230095.73069018</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-4230095.73069018</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-4319153.66779018</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-4319153.66779018</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-4319153.66779018</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-4319153.66779018</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-4319047.80399018</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-4329047.80399018</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-4329047.80399018</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-4329047.80399018</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-4297790.44879018</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-4297790.44879018</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-4297790.44879018</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-4297790.44879018</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-4297790.44879018</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-4297790.44879018</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-4297790.44879018</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-4645930.782390179</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-4645930.782390179</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-4667092.396890179</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-4666992.186390179</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-4666992.186390179</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-4666992.186390179</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-4713088.447590179</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-4685451.948390178</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-4685451.948390178</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-5090886.614390179</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-5047303.791590178</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-5047303.791590178</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-5047303.791590178</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-4945536.885590179</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-4844436.885590179</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-4844436.885590179</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-4844436.885590179</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-4844436.885590179</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-4844436.885590179</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-4844436.885590179</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-4844436.885590179</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-4844436.885590179</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-4844436.885590179</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-4844436.885590179</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-4813651.473219049</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-4840308.473219049</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-4840308.473219049</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-4840308.473219049</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-4840308.473219049</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-4840308.473219049</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-4896694.641419049</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-4874694.641419049</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-4874694.641419049</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-4874285.311619049</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-4874285.311619049</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-4878166.661519049</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-4391919.486419049</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-4316800.153319049</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-4410519.333919048</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-4410519.333919048</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-4410519.333919048</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-4413266.064819048</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-4413266.064819048</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-4413266.064819048</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-4602199.578119048</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-4602199.578119048</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-4602044.137719048</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-4640394.469019048</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-4640394.469019048</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-5348995.869219048</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-6907693.652755907</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -16918,10 +16918,14 @@
         <v>-9770918.913419509</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
-      </c>
-      <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I501" t="n">
+        <v>19</v>
+      </c>
+      <c r="J501" t="n">
+        <v>19</v>
+      </c>
       <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
@@ -16951,11 +16955,19 @@
         <v>-9755143.99195355</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
-      </c>
-      <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I502" t="n">
+        <v>19</v>
+      </c>
+      <c r="J502" t="n">
+        <v>19</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -16987,8 +16999,14 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>19</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17050,10 +17068,14 @@
         <v>-9755844.432153549</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
-      </c>
-      <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I505" t="n">
+        <v>19</v>
+      </c>
+      <c r="J505" t="n">
+        <v>19</v>
+      </c>
       <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
@@ -17083,11 +17105,19 @@
         <v>-9755844.432153549</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
-      </c>
-      <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I506" t="n">
+        <v>19</v>
+      </c>
+      <c r="J506" t="n">
+        <v>19</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17116,11 +17146,19 @@
         <v>-9755844.432153549</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
-      </c>
-      <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I507" t="n">
+        <v>19</v>
+      </c>
+      <c r="J507" t="n">
+        <v>19</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17149,10 +17187,14 @@
         <v>-9755844.432153549</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
-      </c>
-      <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I508" t="n">
+        <v>19</v>
+      </c>
+      <c r="J508" t="n">
+        <v>19</v>
+      </c>
       <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
@@ -17182,11 +17224,19 @@
         <v>-9755844.432153549</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
-      </c>
-      <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I509" t="n">
+        <v>19</v>
+      </c>
+      <c r="J509" t="n">
+        <v>19</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17215,11 +17265,19 @@
         <v>-9755844.432153549</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
-      </c>
-      <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I510" t="n">
+        <v>19</v>
+      </c>
+      <c r="J510" t="n">
+        <v>19</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18105,9 +18163,11 @@
         <v>-9730600.00195355</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
-      </c>
-      <c r="I532" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I532" t="n">
+        <v>19.1</v>
+      </c>
       <c r="J532" t="n">
         <v>19</v>
       </c>
@@ -18144,9 +18204,11 @@
         <v>-9090867.55415355</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
-      </c>
-      <c r="I533" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I533" t="n">
+        <v>19.1</v>
+      </c>
       <c r="J533" t="n">
         <v>19</v>
       </c>
@@ -18183,9 +18245,11 @@
         <v>-9116767.689853551</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
-      </c>
-      <c r="I534" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I534" t="n">
+        <v>19.2</v>
+      </c>
       <c r="J534" t="n">
         <v>19</v>
       </c>
@@ -18222,9 +18286,11 @@
         <v>-8811286.961353552</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
-      </c>
-      <c r="I535" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I535" t="n">
+        <v>19.1</v>
+      </c>
       <c r="J535" t="n">
         <v>19</v>
       </c>
@@ -18261,9 +18327,11 @@
         <v>-8811286.961353552</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
-      </c>
-      <c r="I536" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I536" t="n">
+        <v>19.2</v>
+      </c>
       <c r="J536" t="n">
         <v>19</v>
       </c>
@@ -18300,2460 +18368,2944 @@
         <v>-8811286.961353552</v>
       </c>
       <c r="H537" t="n">
+        <v>1</v>
+      </c>
+      <c r="I537" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J537" t="n">
+        <v>19</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L537" t="n">
+        <v>1</v>
+      </c>
+      <c r="M537" t="inlineStr"/>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="n">
+        <v>536</v>
+      </c>
+      <c r="B538" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="C538" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="D538" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="E538" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="F538" t="n">
+        <v>23527.052</v>
+      </c>
+      <c r="G538" t="n">
+        <v>-8834814.013353551</v>
+      </c>
+      <c r="H538" t="n">
+        <v>1</v>
+      </c>
+      <c r="I538" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J538" t="n">
+        <v>19</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L538" t="n">
+        <v>1</v>
+      </c>
+      <c r="M538" t="inlineStr"/>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="n">
+        <v>537</v>
+      </c>
+      <c r="B539" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="C539" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="D539" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="E539" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="F539" t="n">
+        <v>10</v>
+      </c>
+      <c r="G539" t="n">
+        <v>-8834804.013353551</v>
+      </c>
+      <c r="H539" t="n">
+        <v>1</v>
+      </c>
+      <c r="I539" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="J539" t="n">
+        <v>19</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L539" t="n">
+        <v>1</v>
+      </c>
+      <c r="M539" t="inlineStr"/>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="n">
+        <v>538</v>
+      </c>
+      <c r="B540" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="C540" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="D540" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="E540" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="F540" t="n">
+        <v>24995</v>
+      </c>
+      <c r="G540" t="n">
+        <v>-8859799.013353551</v>
+      </c>
+      <c r="H540" t="n">
+        <v>1</v>
+      </c>
+      <c r="I540" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="J540" t="n">
+        <v>19</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L540" t="n">
+        <v>1</v>
+      </c>
+      <c r="M540" t="inlineStr"/>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="n">
+        <v>539</v>
+      </c>
+      <c r="B541" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="C541" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="D541" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="E541" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="F541" t="n">
+        <v>10</v>
+      </c>
+      <c r="G541" t="n">
+        <v>-8859799.013353551</v>
+      </c>
+      <c r="H541" t="n">
+        <v>1</v>
+      </c>
+      <c r="I541" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J541" t="n">
+        <v>19</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L541" t="n">
+        <v>1</v>
+      </c>
+      <c r="M541" t="inlineStr"/>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="n">
+        <v>540</v>
+      </c>
+      <c r="B542" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="C542" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="D542" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="E542" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="F542" t="n">
+        <v>405241.794</v>
+      </c>
+      <c r="G542" t="n">
+        <v>-8859799.013353551</v>
+      </c>
+      <c r="H542" t="n">
+        <v>1</v>
+      </c>
+      <c r="I542" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J542" t="n">
+        <v>19</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L542" t="n">
+        <v>1</v>
+      </c>
+      <c r="M542" t="inlineStr"/>
+    </row>
+    <row r="543">
+      <c r="A543" s="1" t="n">
+        <v>541</v>
+      </c>
+      <c r="B543" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="C543" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="D543" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="E543" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="F543" t="n">
+        <v>453071.6599</v>
+      </c>
+      <c r="G543" t="n">
+        <v>-8859799.013353551</v>
+      </c>
+      <c r="H543" t="n">
+        <v>1</v>
+      </c>
+      <c r="I543" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J543" t="n">
+        <v>19</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L543" t="n">
+        <v>1</v>
+      </c>
+      <c r="M543" t="inlineStr"/>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="n">
+        <v>542</v>
+      </c>
+      <c r="B544" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="C544" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="D544" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="E544" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="F544" t="n">
+        <v>1979.4981</v>
+      </c>
+      <c r="G544" t="n">
+        <v>-8859799.013353551</v>
+      </c>
+      <c r="H544" t="n">
+        <v>1</v>
+      </c>
+      <c r="I544" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J544" t="n">
+        <v>19</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L544" t="n">
+        <v>1</v>
+      </c>
+      <c r="M544" t="inlineStr"/>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="n">
+        <v>543</v>
+      </c>
+      <c r="B545" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="C545" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="D545" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="E545" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="F545" t="n">
+        <v>2742.5</v>
+      </c>
+      <c r="G545" t="n">
+        <v>-8859799.013353551</v>
+      </c>
+      <c r="H545" t="n">
+        <v>1</v>
+      </c>
+      <c r="I545" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J545" t="n">
+        <v>19</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L545" t="n">
+        <v>1</v>
+      </c>
+      <c r="M545" t="inlineStr"/>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="n">
+        <v>544</v>
+      </c>
+      <c r="B546" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="C546" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="D546" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="E546" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="F546" t="n">
+        <v>47664.6757</v>
+      </c>
+      <c r="G546" t="n">
+        <v>-8859799.013353551</v>
+      </c>
+      <c r="H546" t="n">
+        <v>1</v>
+      </c>
+      <c r="I546" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J546" t="n">
+        <v>19</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L546" t="n">
+        <v>1</v>
+      </c>
+      <c r="M546" t="inlineStr"/>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="n">
+        <v>545</v>
+      </c>
+      <c r="B547" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="C547" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="D547" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="E547" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="F547" t="n">
+        <v>425557.1977</v>
+      </c>
+      <c r="G547" t="n">
+        <v>-8859799.013353551</v>
+      </c>
+      <c r="H547" t="n">
+        <v>1</v>
+      </c>
+      <c r="I547" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J547" t="n">
+        <v>19</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L547" t="n">
+        <v>1</v>
+      </c>
+      <c r="M547" t="inlineStr"/>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="n">
+        <v>546</v>
+      </c>
+      <c r="B548" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="C548" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="D548" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="E548" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="F548" t="n">
+        <v>29744.9039</v>
+      </c>
+      <c r="G548" t="n">
+        <v>-8859799.013353551</v>
+      </c>
+      <c r="H548" t="n">
+        <v>1</v>
+      </c>
+      <c r="I548" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J548" t="n">
+        <v>19</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L548" t="n">
+        <v>1</v>
+      </c>
+      <c r="M548" t="inlineStr"/>
+    </row>
+    <row r="549">
+      <c r="A549" s="1" t="n">
+        <v>547</v>
+      </c>
+      <c r="B549" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="C549" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="D549" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="E549" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="F549" t="n">
+        <v>5181.3471</v>
+      </c>
+      <c r="G549" t="n">
+        <v>-8854617.66625355</v>
+      </c>
+      <c r="H549" t="n">
+        <v>1</v>
+      </c>
+      <c r="I549" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J549" t="n">
+        <v>19</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L549" t="n">
+        <v>1</v>
+      </c>
+      <c r="M549" t="inlineStr"/>
+    </row>
+    <row r="550">
+      <c r="A550" s="1" t="n">
+        <v>548</v>
+      </c>
+      <c r="B550" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="C550" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="D550" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="E550" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="F550" t="n">
+        <v>71401.81347150001</v>
+      </c>
+      <c r="G550" t="n">
+        <v>-8854617.66625355</v>
+      </c>
+      <c r="H550" t="n">
+        <v>1</v>
+      </c>
+      <c r="I550" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="J550" t="n">
+        <v>19</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L550" t="n">
+        <v>1</v>
+      </c>
+      <c r="M550" t="inlineStr"/>
+    </row>
+    <row r="551">
+      <c r="A551" s="1" t="n">
+        <v>549</v>
+      </c>
+      <c r="B551" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="C551" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="D551" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="E551" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="F551" t="n">
+        <v>218.5284974</v>
+      </c>
+      <c r="G551" t="n">
+        <v>-8854617.66625355</v>
+      </c>
+      <c r="H551" t="n">
+        <v>1</v>
+      </c>
+      <c r="I551" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="J551" t="n">
+        <v>19</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L551" t="n">
+        <v>1</v>
+      </c>
+      <c r="M551" t="inlineStr"/>
+    </row>
+    <row r="552">
+      <c r="A552" s="1" t="n">
+        <v>550</v>
+      </c>
+      <c r="B552" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="C552" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="D552" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="E552" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="F552" t="n">
+        <v>400</v>
+      </c>
+      <c r="G552" t="n">
+        <v>-8855017.66625355</v>
+      </c>
+      <c r="H552" t="n">
+        <v>1</v>
+      </c>
+      <c r="I552" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="J552" t="n">
+        <v>19</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L552" t="n">
+        <v>1</v>
+      </c>
+      <c r="M552" t="inlineStr"/>
+    </row>
+    <row r="553">
+      <c r="A553" s="1" t="n">
+        <v>551</v>
+      </c>
+      <c r="B553" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="C553" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="D553" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="E553" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="F553" t="n">
+        <v>15845.2244</v>
+      </c>
+      <c r="G553" t="n">
+        <v>-8855017.66625355</v>
+      </c>
+      <c r="H553" t="n">
+        <v>1</v>
+      </c>
+      <c r="I553" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J553" t="n">
+        <v>19</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L553" t="n">
+        <v>1</v>
+      </c>
+      <c r="M553" t="inlineStr"/>
+    </row>
+    <row r="554">
+      <c r="A554" s="1" t="n">
+        <v>552</v>
+      </c>
+      <c r="B554" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="C554" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="D554" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="E554" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="F554" t="n">
+        <v>14660</v>
+      </c>
+      <c r="G554" t="n">
+        <v>-8855017.66625355</v>
+      </c>
+      <c r="H554" t="n">
+        <v>1</v>
+      </c>
+      <c r="I554" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J554" t="n">
+        <v>19</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L554" t="n">
+        <v>1</v>
+      </c>
+      <c r="M554" t="inlineStr"/>
+    </row>
+    <row r="555">
+      <c r="A555" s="1" t="n">
+        <v>553</v>
+      </c>
+      <c r="B555" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="C555" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="D555" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="E555" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="F555" t="n">
+        <v>7781.1979</v>
+      </c>
+      <c r="G555" t="n">
+        <v>-8855017.66625355</v>
+      </c>
+      <c r="H555" t="n">
+        <v>1</v>
+      </c>
+      <c r="I555" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J555" t="n">
+        <v>19</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L555" t="n">
+        <v>1</v>
+      </c>
+      <c r="M555" t="inlineStr"/>
+    </row>
+    <row r="556">
+      <c r="A556" s="1" t="n">
+        <v>554</v>
+      </c>
+      <c r="B556" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="C556" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="D556" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="E556" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="F556" t="n">
+        <v>1766.6927</v>
+      </c>
+      <c r="G556" t="n">
+        <v>-8855017.66625355</v>
+      </c>
+      <c r="H556" t="n">
+        <v>1</v>
+      </c>
+      <c r="I556" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J556" t="n">
+        <v>19</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L556" t="n">
+        <v>1</v>
+      </c>
+      <c r="M556" t="inlineStr"/>
+    </row>
+    <row r="557">
+      <c r="A557" s="1" t="n">
+        <v>555</v>
+      </c>
+      <c r="B557" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="C557" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="D557" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="E557" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="F557" t="n">
+        <v>1766.6666</v>
+      </c>
+      <c r="G557" t="n">
+        <v>-8855017.66625355</v>
+      </c>
+      <c r="H557" t="n">
+        <v>1</v>
+      </c>
+      <c r="I557" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J557" t="n">
+        <v>19</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L557" t="n">
+        <v>1</v>
+      </c>
+      <c r="M557" t="inlineStr"/>
+    </row>
+    <row r="558">
+      <c r="A558" s="1" t="n">
+        <v>556</v>
+      </c>
+      <c r="B558" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="C558" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="D558" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="E558" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="F558" t="n">
+        <v>3732.3437</v>
+      </c>
+      <c r="G558" t="n">
+        <v>-8855017.66625355</v>
+      </c>
+      <c r="H558" t="n">
+        <v>1</v>
+      </c>
+      <c r="I558" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J558" t="n">
+        <v>19</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L558" t="n">
+        <v>1</v>
+      </c>
+      <c r="M558" t="inlineStr"/>
+    </row>
+    <row r="559">
+      <c r="A559" s="1" t="n">
+        <v>557</v>
+      </c>
+      <c r="B559" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="C559" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="D559" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="E559" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="F559" t="n">
+        <v>571.1458</v>
+      </c>
+      <c r="G559" t="n">
+        <v>-8855017.66625355</v>
+      </c>
+      <c r="H559" t="n">
+        <v>1</v>
+      </c>
+      <c r="I559" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J559" t="n">
+        <v>19</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L559" t="n">
+        <v>1</v>
+      </c>
+      <c r="M559" t="inlineStr"/>
+    </row>
+    <row r="560">
+      <c r="A560" s="1" t="n">
+        <v>558</v>
+      </c>
+      <c r="B560" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="C560" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="D560" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="E560" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="F560" t="n">
+        <v>73646.7625</v>
+      </c>
+      <c r="G560" t="n">
+        <v>-8928664.428753549</v>
+      </c>
+      <c r="H560" t="n">
+        <v>1</v>
+      </c>
+      <c r="I560" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J560" t="n">
+        <v>19</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L560" t="n">
+        <v>1</v>
+      </c>
+      <c r="M560" t="inlineStr"/>
+    </row>
+    <row r="561">
+      <c r="A561" s="1" t="n">
+        <v>559</v>
+      </c>
+      <c r="B561" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="C561" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="D561" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="E561" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="F561" t="n">
+        <v>834576.6632</v>
+      </c>
+      <c r="G561" t="n">
+        <v>-8928664.428753549</v>
+      </c>
+      <c r="H561" t="n">
+        <v>1</v>
+      </c>
+      <c r="I561" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="J561" t="n">
+        <v>19</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L561" t="n">
+        <v>1</v>
+      </c>
+      <c r="M561" t="inlineStr"/>
+    </row>
+    <row r="562">
+      <c r="A562" s="1" t="n">
+        <v>560</v>
+      </c>
+      <c r="B562" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="C562" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="D562" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="E562" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="F562" t="n">
+        <v>11838.0243</v>
+      </c>
+      <c r="G562" t="n">
+        <v>-8928664.428753549</v>
+      </c>
+      <c r="H562" t="n">
+        <v>1</v>
+      </c>
+      <c r="I562" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="J562" t="n">
+        <v>19</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L562" t="n">
+        <v>1</v>
+      </c>
+      <c r="M562" t="inlineStr"/>
+    </row>
+    <row r="563">
+      <c r="A563" s="1" t="n">
+        <v>561</v>
+      </c>
+      <c r="B563" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="C563" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="D563" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="E563" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="F563" t="n">
+        <v>5929.9432</v>
+      </c>
+      <c r="G563" t="n">
+        <v>-8928664.428753549</v>
+      </c>
+      <c r="H563" t="n">
+        <v>1</v>
+      </c>
+      <c r="I563" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="J563" t="n">
+        <v>19</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L563" t="n">
+        <v>1</v>
+      </c>
+      <c r="M563" t="inlineStr"/>
+    </row>
+    <row r="564">
+      <c r="A564" s="1" t="n">
+        <v>562</v>
+      </c>
+      <c r="B564" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="C564" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="D564" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="E564" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="F564" t="n">
+        <v>51</v>
+      </c>
+      <c r="G564" t="n">
+        <v>-8928664.428753549</v>
+      </c>
+      <c r="H564" t="n">
+        <v>1</v>
+      </c>
+      <c r="I564" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="J564" t="n">
+        <v>19</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L564" t="n">
+        <v>1</v>
+      </c>
+      <c r="M564" t="inlineStr"/>
+    </row>
+    <row r="565">
+      <c r="A565" s="1" t="n">
+        <v>563</v>
+      </c>
+      <c r="B565" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="C565" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="D565" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="E565" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="F565" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G565" t="n">
+        <v>-8928664.428753549</v>
+      </c>
+      <c r="H565" t="n">
+        <v>1</v>
+      </c>
+      <c r="I565" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="J565" t="n">
+        <v>19</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L565" t="n">
+        <v>1</v>
+      </c>
+      <c r="M565" t="inlineStr"/>
+    </row>
+    <row r="566">
+      <c r="A566" s="1" t="n">
+        <v>564</v>
+      </c>
+      <c r="B566" t="n">
+        <v>19</v>
+      </c>
+      <c r="C566" t="n">
+        <v>19</v>
+      </c>
+      <c r="D566" t="n">
+        <v>19</v>
+      </c>
+      <c r="E566" t="n">
+        <v>19</v>
+      </c>
+      <c r="F566" t="n">
+        <v>89723.5824</v>
+      </c>
+      <c r="G566" t="n">
+        <v>-9018388.011153549</v>
+      </c>
+      <c r="H566" t="n">
+        <v>1</v>
+      </c>
+      <c r="I566" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="J566" t="n">
+        <v>19</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L566" t="n">
+        <v>1</v>
+      </c>
+      <c r="M566" t="inlineStr"/>
+    </row>
+    <row r="567">
+      <c r="A567" s="1" t="n">
+        <v>565</v>
+      </c>
+      <c r="B567" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="C567" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="D567" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="E567" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="F567" t="n">
+        <v>48.5416</v>
+      </c>
+      <c r="G567" t="n">
+        <v>-9018339.469553549</v>
+      </c>
+      <c r="H567" t="n">
+        <v>1</v>
+      </c>
+      <c r="I567" t="n">
+        <v>19</v>
+      </c>
+      <c r="J567" t="n">
+        <v>19</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L567" t="n">
+        <v>1</v>
+      </c>
+      <c r="M567" t="inlineStr"/>
+    </row>
+    <row r="568">
+      <c r="A568" s="1" t="n">
+        <v>566</v>
+      </c>
+      <c r="B568" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="C568" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="D568" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="E568" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="F568" t="n">
+        <v>149607.5789</v>
+      </c>
+      <c r="G568" t="n">
+        <v>-9167947.048453549</v>
+      </c>
+      <c r="H568" t="n">
+        <v>1</v>
+      </c>
+      <c r="I568" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J568" t="n">
+        <v>19</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L568" t="n">
+        <v>1</v>
+      </c>
+      <c r="M568" t="inlineStr"/>
+    </row>
+    <row r="569">
+      <c r="A569" s="1" t="n">
+        <v>567</v>
+      </c>
+      <c r="B569" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="C569" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="D569" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="E569" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="F569" t="n">
+        <v>57293.4707</v>
+      </c>
+      <c r="G569" t="n">
+        <v>-9167947.048453549</v>
+      </c>
+      <c r="H569" t="n">
+        <v>1</v>
+      </c>
+      <c r="I569" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="J569" t="n">
+        <v>19</v>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L569" t="n">
+        <v>1</v>
+      </c>
+      <c r="M569" t="inlineStr"/>
+    </row>
+    <row r="570">
+      <c r="A570" s="1" t="n">
+        <v>568</v>
+      </c>
+      <c r="B570" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="C570" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="D570" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="E570" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="F570" t="n">
+        <v>11370.3387</v>
+      </c>
+      <c r="G570" t="n">
+        <v>-9167947.048453549</v>
+      </c>
+      <c r="H570" t="n">
+        <v>1</v>
+      </c>
+      <c r="I570" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="J570" t="n">
+        <v>19</v>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L570" t="n">
+        <v>1</v>
+      </c>
+      <c r="M570" t="inlineStr"/>
+    </row>
+    <row r="571">
+      <c r="A571" s="1" t="n">
+        <v>569</v>
+      </c>
+      <c r="B571" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="C571" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="D571" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="E571" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="F571" t="n">
+        <v>10</v>
+      </c>
+      <c r="G571" t="n">
+        <v>-9167937.048453549</v>
+      </c>
+      <c r="H571" t="n">
+        <v>1</v>
+      </c>
+      <c r="I571" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="J571" t="n">
+        <v>19</v>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L571" t="n">
+        <v>1</v>
+      </c>
+      <c r="M571" t="inlineStr"/>
+    </row>
+    <row r="572">
+      <c r="A572" s="1" t="n">
+        <v>570</v>
+      </c>
+      <c r="B572" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="C572" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="D572" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="E572" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="F572" t="n">
+        <v>9765.224099999999</v>
+      </c>
+      <c r="G572" t="n">
+        <v>-9177702.272553548</v>
+      </c>
+      <c r="H572" t="n">
+        <v>1</v>
+      </c>
+      <c r="I572" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J572" t="n">
+        <v>19</v>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L572" t="n">
+        <v>1</v>
+      </c>
+      <c r="M572" t="inlineStr"/>
+    </row>
+    <row r="573">
+      <c r="A573" s="1" t="n">
+        <v>571</v>
+      </c>
+      <c r="B573" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="C573" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="D573" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="E573" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="F573" t="n">
+        <v>198002.0642</v>
+      </c>
+      <c r="G573" t="n">
+        <v>-8979700.208353547</v>
+      </c>
+      <c r="H573" t="n">
+        <v>1</v>
+      </c>
+      <c r="I573" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="J573" t="n">
+        <v>19</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L573" t="n">
+        <v>1</v>
+      </c>
+      <c r="M573" t="inlineStr"/>
+    </row>
+    <row r="574">
+      <c r="A574" s="1" t="n">
+        <v>572</v>
+      </c>
+      <c r="B574" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="C574" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="D574" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="E574" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="F574" t="n">
+        <v>90898.94100000001</v>
+      </c>
+      <c r="G574" t="n">
+        <v>-8979700.208353547</v>
+      </c>
+      <c r="H574" t="n">
+        <v>1</v>
+      </c>
+      <c r="I574" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J574" t="n">
+        <v>19</v>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L574" t="n">
+        <v>1</v>
+      </c>
+      <c r="M574" t="inlineStr"/>
+    </row>
+    <row r="575">
+      <c r="A575" s="1" t="n">
+        <v>573</v>
+      </c>
+      <c r="B575" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="C575" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="D575" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="E575" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="F575" t="n">
+        <v>41347.6819</v>
+      </c>
+      <c r="G575" t="n">
+        <v>-8979700.208353547</v>
+      </c>
+      <c r="H575" t="n">
+        <v>0</v>
+      </c>
+      <c r="I575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>19</v>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L575" t="n">
+        <v>1</v>
+      </c>
+      <c r="M575" t="inlineStr"/>
+    </row>
+    <row r="576">
+      <c r="A576" s="1" t="n">
+        <v>574</v>
+      </c>
+      <c r="B576" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="C576" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="D576" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="E576" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="F576" t="n">
+        <v>30209.1856</v>
+      </c>
+      <c r="G576" t="n">
+        <v>-8979700.208353547</v>
+      </c>
+      <c r="H576" t="n">
+        <v>0</v>
+      </c>
+      <c r="I576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>19</v>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L576" t="n">
+        <v>1</v>
+      </c>
+      <c r="M576" t="inlineStr"/>
+    </row>
+    <row r="577">
+      <c r="A577" s="1" t="n">
+        <v>575</v>
+      </c>
+      <c r="B577" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="C577" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="D577" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="E577" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="F577" t="n">
+        <v>291560.2314</v>
+      </c>
+      <c r="G577" t="n">
+        <v>-8979700.208353547</v>
+      </c>
+      <c r="H577" t="n">
+        <v>0</v>
+      </c>
+      <c r="I577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>19</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L577" t="n">
+        <v>1</v>
+      </c>
+      <c r="M577" t="inlineStr"/>
+    </row>
+    <row r="578">
+      <c r="A578" s="1" t="n">
+        <v>576</v>
+      </c>
+      <c r="B578" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="C578" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="D578" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="E578" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="F578" t="n">
+        <v>71247.6637</v>
+      </c>
+      <c r="G578" t="n">
+        <v>-8979700.208353547</v>
+      </c>
+      <c r="H578" t="n">
+        <v>0</v>
+      </c>
+      <c r="I578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>19</v>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L578" t="n">
+        <v>1</v>
+      </c>
+      <c r="M578" t="inlineStr"/>
+    </row>
+    <row r="579">
+      <c r="A579" s="1" t="n">
+        <v>577</v>
+      </c>
+      <c r="B579" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="C579" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="D579" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="E579" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="F579" t="n">
+        <v>1461.8859</v>
+      </c>
+      <c r="G579" t="n">
+        <v>-8979700.208353547</v>
+      </c>
+      <c r="H579" t="n">
+        <v>0</v>
+      </c>
+      <c r="I579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>19</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L579" t="n">
+        <v>1</v>
+      </c>
+      <c r="M579" t="inlineStr"/>
+    </row>
+    <row r="580">
+      <c r="A580" s="1" t="n">
+        <v>578</v>
+      </c>
+      <c r="B580" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="C580" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="D580" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="E580" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="F580" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G580" t="n">
+        <v>-8879700.208353547</v>
+      </c>
+      <c r="H580" t="n">
+        <v>1</v>
+      </c>
+      <c r="I580" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J580" t="n">
+        <v>19</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L580" t="n">
+        <v>1</v>
+      </c>
+      <c r="M580" t="inlineStr"/>
+    </row>
+    <row r="581">
+      <c r="A581" s="1" t="n">
+        <v>579</v>
+      </c>
+      <c r="B581" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="C581" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="D581" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="E581" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="F581" t="n">
+        <v>54852.9792</v>
+      </c>
+      <c r="G581" t="n">
+        <v>-8879700.208353547</v>
+      </c>
+      <c r="H581" t="n">
+        <v>0</v>
+      </c>
+      <c r="I581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>19</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L581" t="n">
+        <v>1</v>
+      </c>
+      <c r="M581" t="inlineStr"/>
+    </row>
+    <row r="582">
+      <c r="A582" s="1" t="n">
+        <v>580</v>
+      </c>
+      <c r="B582" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="C582" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="D582" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="E582" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="F582" t="n">
+        <v>136764.9649</v>
+      </c>
+      <c r="G582" t="n">
+        <v>-9016465.173253547</v>
+      </c>
+      <c r="H582" t="n">
+        <v>0</v>
+      </c>
+      <c r="I582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>19</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L582" t="n">
+        <v>1</v>
+      </c>
+      <c r="M582" t="inlineStr"/>
+    </row>
+    <row r="583">
+      <c r="A583" s="1" t="n">
+        <v>581</v>
+      </c>
+      <c r="B583" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="C583" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="D583" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="E583" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="F583" t="n">
+        <v>27257.0963</v>
+      </c>
+      <c r="G583" t="n">
+        <v>-9016465.173253547</v>
+      </c>
+      <c r="H583" t="n">
+        <v>0</v>
+      </c>
+      <c r="I583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>19</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L583" t="n">
+        <v>1</v>
+      </c>
+      <c r="M583" t="inlineStr"/>
+    </row>
+    <row r="584">
+      <c r="A584" s="1" t="n">
+        <v>582</v>
+      </c>
+      <c r="B584" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="C584" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="D584" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="E584" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="F584" t="n">
+        <v>378807.0006</v>
+      </c>
+      <c r="G584" t="n">
+        <v>-9016465.173253547</v>
+      </c>
+      <c r="H584" t="n">
+        <v>0</v>
+      </c>
+      <c r="I584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>19</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L584" t="n">
+        <v>1</v>
+      </c>
+      <c r="M584" t="inlineStr"/>
+    </row>
+    <row r="585">
+      <c r="A585" s="1" t="n">
+        <v>583</v>
+      </c>
+      <c r="B585" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="C585" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="D585" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="E585" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="F585" t="n">
+        <v>2571.8587</v>
+      </c>
+      <c r="G585" t="n">
+        <v>-9016465.173253547</v>
+      </c>
+      <c r="H585" t="n">
+        <v>0</v>
+      </c>
+      <c r="I585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>19</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L585" t="n">
+        <v>1</v>
+      </c>
+      <c r="M585" t="inlineStr"/>
+    </row>
+    <row r="586">
+      <c r="A586" s="1" t="n">
+        <v>584</v>
+      </c>
+      <c r="B586" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="C586" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="D586" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="E586" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="F586" t="n">
+        <v>6089.6319</v>
+      </c>
+      <c r="G586" t="n">
+        <v>-9010375.541353548</v>
+      </c>
+      <c r="H586" t="n">
+        <v>0</v>
+      </c>
+      <c r="I586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>19</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L586" t="n">
+        <v>1</v>
+      </c>
+      <c r="M586" t="inlineStr"/>
+    </row>
+    <row r="587">
+      <c r="A587" s="1" t="n">
+        <v>585</v>
+      </c>
+      <c r="B587" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="C587" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="D587" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="E587" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="F587" t="n">
+        <v>11747.5263</v>
+      </c>
+      <c r="G587" t="n">
+        <v>-8998628.015053548</v>
+      </c>
+      <c r="H587" t="n">
+        <v>0</v>
+      </c>
+      <c r="I587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>19</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L587" t="n">
+        <v>1</v>
+      </c>
+      <c r="M587" t="inlineStr"/>
+    </row>
+    <row r="588">
+      <c r="A588" s="1" t="n">
+        <v>586</v>
+      </c>
+      <c r="B588" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="C588" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="D588" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="E588" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="F588" t="n">
+        <v>18041.2371</v>
+      </c>
+      <c r="G588" t="n">
+        <v>-8998628.015053548</v>
+      </c>
+      <c r="H588" t="n">
+        <v>0</v>
+      </c>
+      <c r="I588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>19</v>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L588" t="n">
+        <v>1</v>
+      </c>
+      <c r="M588" t="inlineStr"/>
+    </row>
+    <row r="589">
+      <c r="A589" s="1" t="n">
+        <v>587</v>
+      </c>
+      <c r="B589" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="C589" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="D589" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="E589" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="F589" t="n">
+        <v>231656.0124</v>
+      </c>
+      <c r="G589" t="n">
+        <v>-9230284.027453547</v>
+      </c>
+      <c r="H589" t="n">
+        <v>0</v>
+      </c>
+      <c r="I589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>19</v>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L589" t="n">
+        <v>1</v>
+      </c>
+      <c r="M589" t="inlineStr"/>
+    </row>
+    <row r="590">
+      <c r="A590" s="1" t="n">
+        <v>588</v>
+      </c>
+      <c r="B590" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="C590" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="D590" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="E590" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="F590" t="n">
+        <v>10</v>
+      </c>
+      <c r="G590" t="n">
+        <v>-9230274.027453547</v>
+      </c>
+      <c r="H590" t="n">
+        <v>0</v>
+      </c>
+      <c r="I590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>19</v>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L590" t="n">
+        <v>1</v>
+      </c>
+      <c r="M590" t="inlineStr"/>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="n">
+        <v>589</v>
+      </c>
+      <c r="B591" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="C591" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="D591" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="E591" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="F591" t="n">
+        <v>155.4404</v>
+      </c>
+      <c r="G591" t="n">
+        <v>-9230429.467853548</v>
+      </c>
+      <c r="H591" t="n">
+        <v>0</v>
+      </c>
+      <c r="I591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>19</v>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L591" t="n">
+        <v>1</v>
+      </c>
+      <c r="M591" t="inlineStr"/>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="n">
+        <v>590</v>
+      </c>
+      <c r="B592" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="C592" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="D592" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="E592" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="F592" t="n">
+        <v>556029.6166</v>
+      </c>
+      <c r="G592" t="n">
+        <v>-8674399.851253549</v>
+      </c>
+      <c r="H592" t="n">
+        <v>0</v>
+      </c>
+      <c r="I592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>19</v>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L592" t="n">
+        <v>1</v>
+      </c>
+      <c r="M592" t="inlineStr"/>
+    </row>
+    <row r="593">
+      <c r="A593" s="1" t="n">
+        <v>591</v>
+      </c>
+      <c r="B593" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="C593" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="D593" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="E593" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="F593" t="n">
+        <v>981339.2937</v>
+      </c>
+      <c r="G593" t="n">
+        <v>-8674399.851253549</v>
+      </c>
+      <c r="H593" t="n">
+        <v>0</v>
+      </c>
+      <c r="I593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>19</v>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L593" t="n">
+        <v>1</v>
+      </c>
+      <c r="M593" t="inlineStr"/>
+    </row>
+    <row r="594">
+      <c r="A594" s="1" t="n">
+        <v>592</v>
+      </c>
+      <c r="B594" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="C594" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="D594" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="E594" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="F594" t="n">
+        <v>449323.0605</v>
+      </c>
+      <c r="G594" t="n">
+        <v>-8674399.851253549</v>
+      </c>
+      <c r="H594" t="n">
+        <v>0</v>
+      </c>
+      <c r="I594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>19</v>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L594" t="n">
+        <v>1</v>
+      </c>
+      <c r="M594" t="inlineStr"/>
+    </row>
+    <row r="595">
+      <c r="A595" s="1" t="n">
+        <v>593</v>
+      </c>
+      <c r="B595" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="C595" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="D595" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="E595" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="F595" t="n">
+        <v>308469.7466</v>
+      </c>
+      <c r="G595" t="n">
+        <v>-8674399.851253549</v>
+      </c>
+      <c r="H595" t="n">
+        <v>0</v>
+      </c>
+      <c r="I595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>19</v>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L595" t="n">
+        <v>1</v>
+      </c>
+      <c r="M595" t="inlineStr"/>
+    </row>
+    <row r="596">
+      <c r="A596" s="1" t="n">
+        <v>594</v>
+      </c>
+      <c r="B596" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="C596" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="D596" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="E596" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="F596" t="n">
+        <v>1002511.6502</v>
+      </c>
+      <c r="G596" t="n">
+        <v>-7671888.201053549</v>
+      </c>
+      <c r="H596" t="n">
+        <v>0</v>
+      </c>
+      <c r="I596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>19</v>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L596" t="n">
+        <v>1</v>
+      </c>
+      <c r="M596" t="inlineStr"/>
+    </row>
+    <row r="597">
+      <c r="A597" s="1" t="n">
+        <v>595</v>
+      </c>
+      <c r="B597" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="C597" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="D597" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="E597" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="F597" t="n">
+        <v>27426.2805</v>
+      </c>
+      <c r="G597" t="n">
+        <v>-7644461.920553548</v>
+      </c>
+      <c r="H597" t="n">
+        <v>0</v>
+      </c>
+      <c r="I597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>19</v>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L597" t="n">
+        <v>1</v>
+      </c>
+      <c r="M597" t="inlineStr"/>
+    </row>
+    <row r="598">
+      <c r="A598" s="1" t="n">
+        <v>596</v>
+      </c>
+      <c r="B598" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="C598" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="D598" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="E598" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="F598" t="n">
+        <v>331813.9786</v>
+      </c>
+      <c r="G598" t="n">
+        <v>-7644461.920553548</v>
+      </c>
+      <c r="H598" t="n">
+        <v>0</v>
+      </c>
+      <c r="I598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>19</v>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L598" t="n">
+        <v>1</v>
+      </c>
+      <c r="M598" t="inlineStr"/>
+    </row>
+    <row r="599">
+      <c r="A599" s="1" t="n">
+        <v>597</v>
+      </c>
+      <c r="B599" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="C599" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="D599" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="E599" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="F599" t="n">
+        <v>83551.8625</v>
+      </c>
+      <c r="G599" t="n">
+        <v>-7644461.920553548</v>
+      </c>
+      <c r="H599" t="n">
+        <v>0</v>
+      </c>
+      <c r="I599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>19</v>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L599" t="n">
+        <v>1</v>
+      </c>
+      <c r="M599" t="inlineStr"/>
+    </row>
+    <row r="600">
+      <c r="A600" s="1" t="n">
+        <v>598</v>
+      </c>
+      <c r="B600" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="C600" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="D600" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="E600" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="F600" t="n">
+        <v>666094.376</v>
+      </c>
+      <c r="G600" t="n">
+        <v>-7644461.920553548</v>
+      </c>
+      <c r="H600" t="n">
+        <v>0</v>
+      </c>
+      <c r="I600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>19</v>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L600" t="n">
+        <v>1</v>
+      </c>
+      <c r="M600" t="inlineStr"/>
+    </row>
+    <row r="601">
+      <c r="A601" s="1" t="n">
+        <v>599</v>
+      </c>
+      <c r="B601" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="C601" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="D601" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="E601" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="F601" t="n">
+        <v>18249.3356</v>
+      </c>
+      <c r="G601" t="n">
+        <v>-7662711.256153548</v>
+      </c>
+      <c r="H601" t="n">
+        <v>0</v>
+      </c>
+      <c r="I601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>19</v>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L601" t="n">
+        <v>1</v>
+      </c>
+      <c r="M601" t="inlineStr"/>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="B602" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="C602" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="D602" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="E602" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="F602" t="n">
+        <v>204176.4698</v>
+      </c>
+      <c r="G602" t="n">
+        <v>-7458534.786353548</v>
+      </c>
+      <c r="H602" t="n">
+        <v>0</v>
+      </c>
+      <c r="I602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>19</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L602" t="n">
+        <v>1</v>
+      </c>
+      <c r="M602" t="inlineStr"/>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="n">
+        <v>601</v>
+      </c>
+      <c r="B603" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="C603" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="D603" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="E603" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="F603" t="n">
+        <v>3508336.4575</v>
+      </c>
+      <c r="G603" t="n">
+        <v>-7458534.786353548</v>
+      </c>
+      <c r="H603" t="n">
+        <v>0</v>
+      </c>
+      <c r="I603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>19</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L603" t="n">
+        <v>1</v>
+      </c>
+      <c r="M603" t="inlineStr"/>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="n">
+        <v>602</v>
+      </c>
+      <c r="B604" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="C604" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="D604" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="E604" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="F604" t="n">
+        <v>898135.0512</v>
+      </c>
+      <c r="G604" t="n">
+        <v>-6560399.735153548</v>
+      </c>
+      <c r="H604" t="n">
+        <v>0</v>
+      </c>
+      <c r="I604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>19</v>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L604" t="n">
+        <v>1</v>
+      </c>
+      <c r="M604" t="inlineStr"/>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="n">
+        <v>603</v>
+      </c>
+      <c r="B605" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="C605" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="D605" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="E605" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="F605" t="n">
+        <v>110825.9238</v>
+      </c>
+      <c r="G605" t="n">
+        <v>-6560399.735153548</v>
+      </c>
+      <c r="H605" t="n">
+        <v>0</v>
+      </c>
+      <c r="I605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>19</v>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L605" t="n">
+        <v>1</v>
+      </c>
+      <c r="M605" t="inlineStr"/>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="n">
+        <v>604</v>
+      </c>
+      <c r="B606" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="C606" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="D606" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="E606" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="F606" t="n">
+        <v>1353489.9194</v>
+      </c>
+      <c r="G606" t="n">
+        <v>-6560399.735153548</v>
+      </c>
+      <c r="H606" t="n">
+        <v>0</v>
+      </c>
+      <c r="I606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>19</v>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L606" t="n">
+        <v>1</v>
+      </c>
+      <c r="M606" t="inlineStr"/>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="n">
+        <v>605</v>
+      </c>
+      <c r="B607" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="C607" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="D607" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="E607" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="F607" t="n">
+        <v>174953.5834</v>
+      </c>
+      <c r="G607" t="n">
+        <v>-6560399.735153548</v>
+      </c>
+      <c r="H607" t="n">
+        <v>0</v>
+      </c>
+      <c r="I607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>19</v>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L607" t="n">
+        <v>1</v>
+      </c>
+      <c r="M607" t="inlineStr"/>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="n">
+        <v>606</v>
+      </c>
+      <c r="B608" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="C608" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="D608" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="E608" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="F608" t="n">
+        <v>1500631.9676</v>
+      </c>
+      <c r="G608" t="n">
+        <v>-5059767.767553548</v>
+      </c>
+      <c r="H608" t="n">
+        <v>0</v>
+      </c>
+      <c r="I608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>19</v>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L608" t="n">
+        <v>1</v>
+      </c>
+      <c r="M608" t="inlineStr"/>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="n">
+        <v>607</v>
+      </c>
+      <c r="B609" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="C609" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="D609" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="E609" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="F609" t="n">
+        <v>653207.8386</v>
+      </c>
+      <c r="G609" t="n">
+        <v>-4406559.928953548</v>
+      </c>
+      <c r="H609" t="n">
+        <v>0</v>
+      </c>
+      <c r="I609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>19</v>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L609" t="n">
+        <v>1</v>
+      </c>
+      <c r="M609" t="inlineStr"/>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="n">
+        <v>608</v>
+      </c>
+      <c r="B610" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="C610" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="D610" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="E610" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="F610" t="n">
+        <v>762163.1356</v>
+      </c>
+      <c r="G610" t="n">
+        <v>-5168723.064553548</v>
+      </c>
+      <c r="H610" t="n">
         <v>2</v>
       </c>
-      <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>19</v>
-      </c>
-      <c r="K537" t="inlineStr">
+      <c r="I610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>19</v>
+      </c>
+      <c r="K610" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L537" t="n">
-        <v>1.005526315789474</v>
-      </c>
-      <c r="M537" t="inlineStr"/>
-    </row>
-    <row r="538">
-      <c r="A538" s="1" t="n">
-        <v>536</v>
-      </c>
-      <c r="B538" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="C538" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="D538" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="E538" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="F538" t="n">
-        <v>23527.052</v>
-      </c>
-      <c r="G538" t="n">
-        <v>-8834814.013353551</v>
-      </c>
-      <c r="H538" t="n">
-        <v>0</v>
-      </c>
-      <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
-      <c r="L538" t="n">
-        <v>1</v>
-      </c>
-      <c r="M538" t="inlineStr"/>
-    </row>
-    <row r="539">
-      <c r="A539" s="1" t="n">
-        <v>537</v>
-      </c>
-      <c r="B539" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="C539" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="D539" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="E539" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="F539" t="n">
-        <v>10</v>
-      </c>
-      <c r="G539" t="n">
-        <v>-8834804.013353551</v>
-      </c>
-      <c r="H539" t="n">
-        <v>0</v>
-      </c>
-      <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
-      <c r="L539" t="n">
-        <v>1</v>
-      </c>
-      <c r="M539" t="inlineStr"/>
-    </row>
-    <row r="540">
-      <c r="A540" s="1" t="n">
-        <v>538</v>
-      </c>
-      <c r="B540" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="C540" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="D540" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="E540" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="F540" t="n">
-        <v>24995</v>
-      </c>
-      <c r="G540" t="n">
-        <v>-8859799.013353551</v>
-      </c>
-      <c r="H540" t="n">
-        <v>2</v>
-      </c>
-      <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
-      <c r="L540" t="n">
-        <v>1</v>
-      </c>
-      <c r="M540" t="inlineStr"/>
-    </row>
-    <row r="541">
-      <c r="A541" s="1" t="n">
-        <v>539</v>
-      </c>
-      <c r="B541" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="C541" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="D541" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="E541" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="F541" t="n">
-        <v>10</v>
-      </c>
-      <c r="G541" t="n">
-        <v>-8859799.013353551</v>
-      </c>
-      <c r="H541" t="n">
-        <v>2</v>
-      </c>
-      <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
-      <c r="L541" t="n">
-        <v>1</v>
-      </c>
-      <c r="M541" t="inlineStr"/>
-    </row>
-    <row r="542">
-      <c r="A542" s="1" t="n">
-        <v>540</v>
-      </c>
-      <c r="B542" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="C542" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="D542" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="E542" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="F542" t="n">
-        <v>405241.794</v>
-      </c>
-      <c r="G542" t="n">
-        <v>-8859799.013353551</v>
-      </c>
-      <c r="H542" t="n">
-        <v>2</v>
-      </c>
-      <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
-      <c r="L542" t="n">
-        <v>1</v>
-      </c>
-      <c r="M542" t="inlineStr"/>
-    </row>
-    <row r="543">
-      <c r="A543" s="1" t="n">
-        <v>541</v>
-      </c>
-      <c r="B543" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="C543" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="D543" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="E543" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="F543" t="n">
-        <v>453071.6599</v>
-      </c>
-      <c r="G543" t="n">
-        <v>-8859799.013353551</v>
-      </c>
-      <c r="H543" t="n">
-        <v>2</v>
-      </c>
-      <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
-      <c r="L543" t="n">
-        <v>1</v>
-      </c>
-      <c r="M543" t="inlineStr"/>
-    </row>
-    <row r="544">
-      <c r="A544" s="1" t="n">
-        <v>542</v>
-      </c>
-      <c r="B544" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="C544" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="D544" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="E544" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="F544" t="n">
-        <v>1979.4981</v>
-      </c>
-      <c r="G544" t="n">
-        <v>-8859799.013353551</v>
-      </c>
-      <c r="H544" t="n">
-        <v>2</v>
-      </c>
-      <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
-      <c r="L544" t="n">
-        <v>1</v>
-      </c>
-      <c r="M544" t="inlineStr"/>
-    </row>
-    <row r="545">
-      <c r="A545" s="1" t="n">
-        <v>543</v>
-      </c>
-      <c r="B545" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="C545" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="D545" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="E545" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="F545" t="n">
-        <v>2742.5</v>
-      </c>
-      <c r="G545" t="n">
-        <v>-8859799.013353551</v>
-      </c>
-      <c r="H545" t="n">
-        <v>2</v>
-      </c>
-      <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
-      <c r="L545" t="n">
-        <v>1</v>
-      </c>
-      <c r="M545" t="inlineStr"/>
-    </row>
-    <row r="546">
-      <c r="A546" s="1" t="n">
-        <v>544</v>
-      </c>
-      <c r="B546" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="C546" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="D546" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="E546" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="F546" t="n">
-        <v>47664.6757</v>
-      </c>
-      <c r="G546" t="n">
-        <v>-8859799.013353551</v>
-      </c>
-      <c r="H546" t="n">
-        <v>2</v>
-      </c>
-      <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
-      <c r="L546" t="n">
-        <v>1</v>
-      </c>
-      <c r="M546" t="inlineStr"/>
-    </row>
-    <row r="547">
-      <c r="A547" s="1" t="n">
-        <v>545</v>
-      </c>
-      <c r="B547" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="C547" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="D547" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="E547" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="F547" t="n">
-        <v>425557.1977</v>
-      </c>
-      <c r="G547" t="n">
-        <v>-8859799.013353551</v>
-      </c>
-      <c r="H547" t="n">
-        <v>2</v>
-      </c>
-      <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
-      <c r="L547" t="n">
-        <v>1</v>
-      </c>
-      <c r="M547" t="inlineStr"/>
-    </row>
-    <row r="548">
-      <c r="A548" s="1" t="n">
-        <v>546</v>
-      </c>
-      <c r="B548" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="C548" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="D548" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="E548" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="F548" t="n">
-        <v>29744.9039</v>
-      </c>
-      <c r="G548" t="n">
-        <v>-8859799.013353551</v>
-      </c>
-      <c r="H548" t="n">
-        <v>2</v>
-      </c>
-      <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
-      <c r="L548" t="n">
-        <v>1</v>
-      </c>
-      <c r="M548" t="inlineStr"/>
-    </row>
-    <row r="549">
-      <c r="A549" s="1" t="n">
-        <v>547</v>
-      </c>
-      <c r="B549" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="C549" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="D549" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="E549" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="F549" t="n">
-        <v>5181.3471</v>
-      </c>
-      <c r="G549" t="n">
-        <v>-8854617.66625355</v>
-      </c>
-      <c r="H549" t="n">
-        <v>2</v>
-      </c>
-      <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
-      <c r="L549" t="n">
-        <v>1</v>
-      </c>
-      <c r="M549" t="inlineStr"/>
-    </row>
-    <row r="550">
-      <c r="A550" s="1" t="n">
-        <v>548</v>
-      </c>
-      <c r="B550" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="C550" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="D550" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="E550" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="F550" t="n">
-        <v>71401.81347150001</v>
-      </c>
-      <c r="G550" t="n">
-        <v>-8854617.66625355</v>
-      </c>
-      <c r="H550" t="n">
-        <v>2</v>
-      </c>
-      <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
-      <c r="L550" t="n">
-        <v>1</v>
-      </c>
-      <c r="M550" t="inlineStr"/>
-    </row>
-    <row r="551">
-      <c r="A551" s="1" t="n">
-        <v>549</v>
-      </c>
-      <c r="B551" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="C551" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="D551" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="E551" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="F551" t="n">
-        <v>218.5284974</v>
-      </c>
-      <c r="G551" t="n">
-        <v>-8854617.66625355</v>
-      </c>
-      <c r="H551" t="n">
-        <v>2</v>
-      </c>
-      <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
-      <c r="L551" t="n">
-        <v>1</v>
-      </c>
-      <c r="M551" t="inlineStr"/>
-    </row>
-    <row r="552">
-      <c r="A552" s="1" t="n">
-        <v>550</v>
-      </c>
-      <c r="B552" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="C552" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="D552" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="E552" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="F552" t="n">
-        <v>400</v>
-      </c>
-      <c r="G552" t="n">
-        <v>-8855017.66625355</v>
-      </c>
-      <c r="H552" t="n">
-        <v>2</v>
-      </c>
-      <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
-      <c r="L552" t="n">
-        <v>1</v>
-      </c>
-      <c r="M552" t="inlineStr"/>
-    </row>
-    <row r="553">
-      <c r="A553" s="1" t="n">
-        <v>551</v>
-      </c>
-      <c r="B553" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="C553" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="D553" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="E553" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="F553" t="n">
-        <v>15845.2244</v>
-      </c>
-      <c r="G553" t="n">
-        <v>-8855017.66625355</v>
-      </c>
-      <c r="H553" t="n">
-        <v>0</v>
-      </c>
-      <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
-      <c r="L553" t="n">
-        <v>1</v>
-      </c>
-      <c r="M553" t="inlineStr"/>
-    </row>
-    <row r="554">
-      <c r="A554" s="1" t="n">
-        <v>552</v>
-      </c>
-      <c r="B554" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="C554" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="D554" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="E554" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="F554" t="n">
-        <v>14660</v>
-      </c>
-      <c r="G554" t="n">
-        <v>-8855017.66625355</v>
-      </c>
-      <c r="H554" t="n">
-        <v>2</v>
-      </c>
-      <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
-      <c r="L554" t="n">
-        <v>1</v>
-      </c>
-      <c r="M554" t="inlineStr"/>
-    </row>
-    <row r="555">
-      <c r="A555" s="1" t="n">
-        <v>553</v>
-      </c>
-      <c r="B555" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="C555" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="D555" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="E555" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="F555" t="n">
-        <v>7781.1979</v>
-      </c>
-      <c r="G555" t="n">
-        <v>-8855017.66625355</v>
-      </c>
-      <c r="H555" t="n">
-        <v>2</v>
-      </c>
-      <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
-      <c r="L555" t="n">
-        <v>1</v>
-      </c>
-      <c r="M555" t="inlineStr"/>
-    </row>
-    <row r="556">
-      <c r="A556" s="1" t="n">
-        <v>554</v>
-      </c>
-      <c r="B556" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="C556" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="D556" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="E556" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="F556" t="n">
-        <v>1766.6927</v>
-      </c>
-      <c r="G556" t="n">
-        <v>-8855017.66625355</v>
-      </c>
-      <c r="H556" t="n">
-        <v>2</v>
-      </c>
-      <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
-      <c r="L556" t="n">
-        <v>1</v>
-      </c>
-      <c r="M556" t="inlineStr"/>
-    </row>
-    <row r="557">
-      <c r="A557" s="1" t="n">
-        <v>555</v>
-      </c>
-      <c r="B557" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="C557" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="D557" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="E557" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="F557" t="n">
-        <v>1766.6666</v>
-      </c>
-      <c r="G557" t="n">
-        <v>-8855017.66625355</v>
-      </c>
-      <c r="H557" t="n">
-        <v>2</v>
-      </c>
-      <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
-      <c r="L557" t="n">
-        <v>1</v>
-      </c>
-      <c r="M557" t="inlineStr"/>
-    </row>
-    <row r="558">
-      <c r="A558" s="1" t="n">
-        <v>556</v>
-      </c>
-      <c r="B558" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="C558" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="D558" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="E558" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="F558" t="n">
-        <v>3732.3437</v>
-      </c>
-      <c r="G558" t="n">
-        <v>-8855017.66625355</v>
-      </c>
-      <c r="H558" t="n">
-        <v>2</v>
-      </c>
-      <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
-      <c r="L558" t="n">
-        <v>1</v>
-      </c>
-      <c r="M558" t="inlineStr"/>
-    </row>
-    <row r="559">
-      <c r="A559" s="1" t="n">
-        <v>557</v>
-      </c>
-      <c r="B559" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="C559" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="D559" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="E559" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="F559" t="n">
-        <v>571.1458</v>
-      </c>
-      <c r="G559" t="n">
-        <v>-8855017.66625355</v>
-      </c>
-      <c r="H559" t="n">
-        <v>2</v>
-      </c>
-      <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
-      <c r="L559" t="n">
-        <v>1</v>
-      </c>
-      <c r="M559" t="inlineStr"/>
-    </row>
-    <row r="560">
-      <c r="A560" s="1" t="n">
-        <v>558</v>
-      </c>
-      <c r="B560" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="C560" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="D560" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="E560" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="F560" t="n">
-        <v>73646.7625</v>
-      </c>
-      <c r="G560" t="n">
-        <v>-8928664.428753549</v>
-      </c>
-      <c r="H560" t="n">
-        <v>2</v>
-      </c>
-      <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
-      <c r="L560" t="n">
-        <v>1</v>
-      </c>
-      <c r="M560" t="inlineStr"/>
-    </row>
-    <row r="561">
-      <c r="A561" s="1" t="n">
-        <v>559</v>
-      </c>
-      <c r="B561" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="C561" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="D561" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="E561" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="F561" t="n">
-        <v>834576.6632</v>
-      </c>
-      <c r="G561" t="n">
-        <v>-8928664.428753549</v>
-      </c>
-      <c r="H561" t="n">
-        <v>1</v>
-      </c>
-      <c r="I561" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="J561" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K561" t="inlineStr"/>
-      <c r="L561" t="n">
-        <v>1</v>
-      </c>
-      <c r="M561" t="inlineStr"/>
-    </row>
-    <row r="562">
-      <c r="A562" s="1" t="n">
-        <v>560</v>
-      </c>
-      <c r="B562" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="C562" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="D562" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="E562" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="F562" t="n">
-        <v>11838.0243</v>
-      </c>
-      <c r="G562" t="n">
-        <v>-8928664.428753549</v>
-      </c>
-      <c r="H562" t="n">
-        <v>2</v>
-      </c>
-      <c r="I562" t="inlineStr"/>
-      <c r="J562" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L562" t="n">
-        <v>1</v>
-      </c>
-      <c r="M562" t="inlineStr"/>
-    </row>
-    <row r="563">
-      <c r="A563" s="1" t="n">
-        <v>561</v>
-      </c>
-      <c r="B563" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="C563" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="D563" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="E563" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="F563" t="n">
-        <v>5929.9432</v>
-      </c>
-      <c r="G563" t="n">
-        <v>-8928664.428753549</v>
-      </c>
-      <c r="H563" t="n">
-        <v>2</v>
-      </c>
-      <c r="I563" t="inlineStr"/>
-      <c r="J563" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L563" t="n">
-        <v>1</v>
-      </c>
-      <c r="M563" t="inlineStr"/>
-    </row>
-    <row r="564">
-      <c r="A564" s="1" t="n">
-        <v>562</v>
-      </c>
-      <c r="B564" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="C564" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="D564" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="E564" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="F564" t="n">
-        <v>51</v>
-      </c>
-      <c r="G564" t="n">
-        <v>-8928664.428753549</v>
-      </c>
-      <c r="H564" t="n">
-        <v>2</v>
-      </c>
-      <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
-      <c r="L564" t="n">
-        <v>1</v>
-      </c>
-      <c r="M564" t="inlineStr"/>
-    </row>
-    <row r="565">
-      <c r="A565" s="1" t="n">
-        <v>563</v>
-      </c>
-      <c r="B565" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="C565" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="D565" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="E565" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="F565" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G565" t="n">
-        <v>-8928664.428753549</v>
-      </c>
-      <c r="H565" t="n">
-        <v>1</v>
-      </c>
-      <c r="I565" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="J565" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K565" t="inlineStr"/>
-      <c r="L565" t="n">
-        <v>1</v>
-      </c>
-      <c r="M565" t="inlineStr"/>
-    </row>
-    <row r="566">
-      <c r="A566" s="1" t="n">
-        <v>564</v>
-      </c>
-      <c r="B566" t="n">
-        <v>19</v>
-      </c>
-      <c r="C566" t="n">
-        <v>19</v>
-      </c>
-      <c r="D566" t="n">
-        <v>19</v>
-      </c>
-      <c r="E566" t="n">
-        <v>19</v>
-      </c>
-      <c r="F566" t="n">
-        <v>89723.5824</v>
-      </c>
-      <c r="G566" t="n">
-        <v>-9018388.011153549</v>
-      </c>
-      <c r="H566" t="n">
-        <v>2</v>
-      </c>
-      <c r="I566" t="inlineStr"/>
-      <c r="J566" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L566" t="n">
-        <v>1</v>
-      </c>
-      <c r="M566" t="inlineStr"/>
-    </row>
-    <row r="567">
-      <c r="A567" s="1" t="n">
-        <v>565</v>
-      </c>
-      <c r="B567" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="C567" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="D567" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="E567" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="F567" t="n">
-        <v>48.5416</v>
-      </c>
-      <c r="G567" t="n">
-        <v>-9018339.469553549</v>
-      </c>
-      <c r="H567" t="n">
-        <v>0</v>
-      </c>
-      <c r="I567" t="inlineStr"/>
-      <c r="J567" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L567" t="n">
-        <v>1</v>
-      </c>
-      <c r="M567" t="inlineStr"/>
-    </row>
-    <row r="568">
-      <c r="A568" s="1" t="n">
-        <v>566</v>
-      </c>
-      <c r="B568" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="C568" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="D568" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="E568" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="F568" t="n">
-        <v>149607.5789</v>
-      </c>
-      <c r="G568" t="n">
-        <v>-9167947.048453549</v>
-      </c>
-      <c r="H568" t="n">
-        <v>2</v>
-      </c>
-      <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
-      <c r="L568" t="n">
-        <v>1</v>
-      </c>
-      <c r="M568" t="inlineStr"/>
-    </row>
-    <row r="569">
-      <c r="A569" s="1" t="n">
-        <v>567</v>
-      </c>
-      <c r="B569" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="C569" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="D569" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="E569" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="F569" t="n">
-        <v>57293.4707</v>
-      </c>
-      <c r="G569" t="n">
-        <v>-9167947.048453549</v>
-      </c>
-      <c r="H569" t="n">
-        <v>2</v>
-      </c>
-      <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
-      <c r="L569" t="n">
-        <v>1</v>
-      </c>
-      <c r="M569" t="inlineStr"/>
-    </row>
-    <row r="570">
-      <c r="A570" s="1" t="n">
-        <v>568</v>
-      </c>
-      <c r="B570" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="C570" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="D570" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="E570" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="F570" t="n">
-        <v>11370.3387</v>
-      </c>
-      <c r="G570" t="n">
-        <v>-9167947.048453549</v>
-      </c>
-      <c r="H570" t="n">
-        <v>2</v>
-      </c>
-      <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
-      <c r="L570" t="n">
-        <v>1</v>
-      </c>
-      <c r="M570" t="inlineStr"/>
-    </row>
-    <row r="571">
-      <c r="A571" s="1" t="n">
-        <v>569</v>
-      </c>
-      <c r="B571" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="C571" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="D571" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="E571" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="F571" t="n">
-        <v>10</v>
-      </c>
-      <c r="G571" t="n">
-        <v>-9167937.048453549</v>
-      </c>
-      <c r="H571" t="n">
-        <v>2</v>
-      </c>
-      <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
-      <c r="L571" t="n">
-        <v>1</v>
-      </c>
-      <c r="M571" t="inlineStr"/>
-    </row>
-    <row r="572">
-      <c r="A572" s="1" t="n">
-        <v>570</v>
-      </c>
-      <c r="B572" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="C572" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="D572" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="E572" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="F572" t="n">
-        <v>9765.224099999999</v>
-      </c>
-      <c r="G572" t="n">
-        <v>-9177702.272553548</v>
-      </c>
-      <c r="H572" t="n">
-        <v>2</v>
-      </c>
-      <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
-      <c r="L572" t="n">
-        <v>1</v>
-      </c>
-      <c r="M572" t="inlineStr"/>
-    </row>
-    <row r="573">
-      <c r="A573" s="1" t="n">
-        <v>571</v>
-      </c>
-      <c r="B573" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="C573" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="D573" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="E573" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="F573" t="n">
-        <v>198002.0642</v>
-      </c>
-      <c r="G573" t="n">
-        <v>-8979700.208353547</v>
-      </c>
-      <c r="H573" t="n">
-        <v>2</v>
-      </c>
-      <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
-      <c r="L573" t="n">
-        <v>1</v>
-      </c>
-      <c r="M573" t="inlineStr"/>
-    </row>
-    <row r="574">
-      <c r="A574" s="1" t="n">
-        <v>572</v>
-      </c>
-      <c r="B574" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="C574" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="D574" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="E574" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="F574" t="n">
-        <v>90898.94100000001</v>
-      </c>
-      <c r="G574" t="n">
-        <v>-8979700.208353547</v>
-      </c>
-      <c r="H574" t="n">
-        <v>2</v>
-      </c>
-      <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
-      <c r="L574" t="n">
-        <v>1</v>
-      </c>
-      <c r="M574" t="inlineStr"/>
-    </row>
-    <row r="575">
-      <c r="A575" s="1" t="n">
-        <v>573</v>
-      </c>
-      <c r="B575" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="C575" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="D575" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="E575" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="F575" t="n">
-        <v>41347.6819</v>
-      </c>
-      <c r="G575" t="n">
-        <v>-8979700.208353547</v>
-      </c>
-      <c r="H575" t="n">
-        <v>2</v>
-      </c>
-      <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
-      <c r="L575" t="n">
-        <v>1</v>
-      </c>
-      <c r="M575" t="inlineStr"/>
-    </row>
-    <row r="576">
-      <c r="A576" s="1" t="n">
-        <v>574</v>
-      </c>
-      <c r="B576" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="C576" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="D576" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="E576" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="F576" t="n">
-        <v>30209.1856</v>
-      </c>
-      <c r="G576" t="n">
-        <v>-8979700.208353547</v>
-      </c>
-      <c r="H576" t="n">
-        <v>2</v>
-      </c>
-      <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
-      <c r="L576" t="n">
-        <v>1</v>
-      </c>
-      <c r="M576" t="inlineStr"/>
-    </row>
-    <row r="577">
-      <c r="A577" s="1" t="n">
-        <v>575</v>
-      </c>
-      <c r="B577" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="C577" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="D577" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="E577" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="F577" t="n">
-        <v>291560.2314</v>
-      </c>
-      <c r="G577" t="n">
-        <v>-8979700.208353547</v>
-      </c>
-      <c r="H577" t="n">
-        <v>2</v>
-      </c>
-      <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
-      <c r="L577" t="n">
-        <v>1</v>
-      </c>
-      <c r="M577" t="inlineStr"/>
-    </row>
-    <row r="578">
-      <c r="A578" s="1" t="n">
-        <v>576</v>
-      </c>
-      <c r="B578" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="C578" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="D578" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="E578" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="F578" t="n">
-        <v>71247.6637</v>
-      </c>
-      <c r="G578" t="n">
-        <v>-8979700.208353547</v>
-      </c>
-      <c r="H578" t="n">
-        <v>2</v>
-      </c>
-      <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
-      <c r="L578" t="n">
-        <v>1</v>
-      </c>
-      <c r="M578" t="inlineStr"/>
-    </row>
-    <row r="579">
-      <c r="A579" s="1" t="n">
-        <v>577</v>
-      </c>
-      <c r="B579" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="C579" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="D579" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="E579" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="F579" t="n">
-        <v>1461.8859</v>
-      </c>
-      <c r="G579" t="n">
-        <v>-8979700.208353547</v>
-      </c>
-      <c r="H579" t="n">
-        <v>2</v>
-      </c>
-      <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
-      <c r="L579" t="n">
-        <v>1</v>
-      </c>
-      <c r="M579" t="inlineStr"/>
-    </row>
-    <row r="580">
-      <c r="A580" s="1" t="n">
-        <v>578</v>
-      </c>
-      <c r="B580" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="C580" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="D580" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="E580" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="F580" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G580" t="n">
-        <v>-8879700.208353547</v>
-      </c>
-      <c r="H580" t="n">
-        <v>2</v>
-      </c>
-      <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
-      <c r="L580" t="n">
-        <v>1</v>
-      </c>
-      <c r="M580" t="inlineStr"/>
-    </row>
-    <row r="581">
-      <c r="A581" s="1" t="n">
-        <v>579</v>
-      </c>
-      <c r="B581" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="C581" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="D581" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="E581" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="F581" t="n">
-        <v>54852.9792</v>
-      </c>
-      <c r="G581" t="n">
-        <v>-8879700.208353547</v>
-      </c>
-      <c r="H581" t="n">
-        <v>2</v>
-      </c>
-      <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
-      <c r="L581" t="n">
-        <v>1</v>
-      </c>
-      <c r="M581" t="inlineStr"/>
-    </row>
-    <row r="582">
-      <c r="A582" s="1" t="n">
-        <v>580</v>
-      </c>
-      <c r="B582" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="C582" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="D582" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="E582" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="F582" t="n">
-        <v>136764.9649</v>
-      </c>
-      <c r="G582" t="n">
-        <v>-9016465.173253547</v>
-      </c>
-      <c r="H582" t="n">
-        <v>2</v>
-      </c>
-      <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
-      <c r="L582" t="n">
-        <v>1</v>
-      </c>
-      <c r="M582" t="inlineStr"/>
-    </row>
-    <row r="583">
-      <c r="A583" s="1" t="n">
-        <v>581</v>
-      </c>
-      <c r="B583" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="C583" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="D583" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="E583" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="F583" t="n">
-        <v>27257.0963</v>
-      </c>
-      <c r="G583" t="n">
-        <v>-9016465.173253547</v>
-      </c>
-      <c r="H583" t="n">
-        <v>2</v>
-      </c>
-      <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
-      <c r="L583" t="n">
-        <v>1</v>
-      </c>
-      <c r="M583" t="inlineStr"/>
-    </row>
-    <row r="584">
-      <c r="A584" s="1" t="n">
-        <v>582</v>
-      </c>
-      <c r="B584" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="C584" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="D584" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="E584" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="F584" t="n">
-        <v>378807.0006</v>
-      </c>
-      <c r="G584" t="n">
-        <v>-9016465.173253547</v>
-      </c>
-      <c r="H584" t="n">
-        <v>0</v>
-      </c>
-      <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
-      <c r="L584" t="n">
-        <v>1</v>
-      </c>
-      <c r="M584" t="inlineStr"/>
-    </row>
-    <row r="585">
-      <c r="A585" s="1" t="n">
-        <v>583</v>
-      </c>
-      <c r="B585" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="C585" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="D585" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="E585" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="F585" t="n">
-        <v>2571.8587</v>
-      </c>
-      <c r="G585" t="n">
-        <v>-9016465.173253547</v>
-      </c>
-      <c r="H585" t="n">
-        <v>0</v>
-      </c>
-      <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
-      <c r="L585" t="n">
-        <v>1</v>
-      </c>
-      <c r="M585" t="inlineStr"/>
-    </row>
-    <row r="586">
-      <c r="A586" s="1" t="n">
-        <v>584</v>
-      </c>
-      <c r="B586" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="C586" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="D586" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="E586" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="F586" t="n">
-        <v>6089.6319</v>
-      </c>
-      <c r="G586" t="n">
-        <v>-9010375.541353548</v>
-      </c>
-      <c r="H586" t="n">
-        <v>0</v>
-      </c>
-      <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
-      <c r="L586" t="n">
-        <v>1</v>
-      </c>
-      <c r="M586" t="inlineStr"/>
-    </row>
-    <row r="587">
-      <c r="A587" s="1" t="n">
-        <v>585</v>
-      </c>
-      <c r="B587" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="C587" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="D587" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="E587" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="F587" t="n">
-        <v>11747.5263</v>
-      </c>
-      <c r="G587" t="n">
-        <v>-8998628.015053548</v>
-      </c>
-      <c r="H587" t="n">
-        <v>0</v>
-      </c>
-      <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
-      <c r="L587" t="n">
-        <v>1</v>
-      </c>
-      <c r="M587" t="inlineStr"/>
-    </row>
-    <row r="588">
-      <c r="A588" s="1" t="n">
-        <v>586</v>
-      </c>
-      <c r="B588" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="C588" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="D588" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="E588" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="F588" t="n">
-        <v>18041.2371</v>
-      </c>
-      <c r="G588" t="n">
-        <v>-8998628.015053548</v>
-      </c>
-      <c r="H588" t="n">
-        <v>0</v>
-      </c>
-      <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
-      <c r="L588" t="n">
-        <v>1</v>
-      </c>
-      <c r="M588" t="inlineStr"/>
-    </row>
-    <row r="589">
-      <c r="A589" s="1" t="n">
-        <v>587</v>
-      </c>
-      <c r="B589" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="C589" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="D589" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="E589" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="F589" t="n">
-        <v>231656.0124</v>
-      </c>
-      <c r="G589" t="n">
-        <v>-9230284.027453547</v>
-      </c>
-      <c r="H589" t="n">
-        <v>0</v>
-      </c>
-      <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
-      <c r="L589" t="n">
-        <v>1</v>
-      </c>
-      <c r="M589" t="inlineStr"/>
-    </row>
-    <row r="590">
-      <c r="A590" s="1" t="n">
-        <v>588</v>
-      </c>
-      <c r="B590" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="C590" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="D590" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="E590" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="F590" t="n">
-        <v>10</v>
-      </c>
-      <c r="G590" t="n">
-        <v>-9230274.027453547</v>
-      </c>
-      <c r="H590" t="n">
-        <v>0</v>
-      </c>
-      <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
-      <c r="L590" t="n">
-        <v>1</v>
-      </c>
-      <c r="M590" t="inlineStr"/>
-    </row>
-    <row r="591">
-      <c r="A591" s="1" t="n">
-        <v>589</v>
-      </c>
-      <c r="B591" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="C591" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="D591" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="E591" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="F591" t="n">
-        <v>155.4404</v>
-      </c>
-      <c r="G591" t="n">
-        <v>-9230429.467853548</v>
-      </c>
-      <c r="H591" t="n">
-        <v>0</v>
-      </c>
-      <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
-      <c r="L591" t="n">
-        <v>1</v>
-      </c>
-      <c r="M591" t="inlineStr"/>
-    </row>
-    <row r="592">
-      <c r="A592" s="1" t="n">
-        <v>590</v>
-      </c>
-      <c r="B592" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="C592" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="D592" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="E592" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="F592" t="n">
-        <v>556029.6166</v>
-      </c>
-      <c r="G592" t="n">
-        <v>-8674399.851253549</v>
-      </c>
-      <c r="H592" t="n">
-        <v>0</v>
-      </c>
-      <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
-      <c r="L592" t="n">
-        <v>1</v>
-      </c>
-      <c r="M592" t="inlineStr"/>
-    </row>
-    <row r="593">
-      <c r="A593" s="1" t="n">
-        <v>591</v>
-      </c>
-      <c r="B593" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="C593" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="D593" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="E593" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="F593" t="n">
-        <v>981339.2937</v>
-      </c>
-      <c r="G593" t="n">
-        <v>-8674399.851253549</v>
-      </c>
-      <c r="H593" t="n">
-        <v>0</v>
-      </c>
-      <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
-      <c r="L593" t="n">
-        <v>1</v>
-      </c>
-      <c r="M593" t="inlineStr"/>
-    </row>
-    <row r="594">
-      <c r="A594" s="1" t="n">
-        <v>592</v>
-      </c>
-      <c r="B594" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="C594" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="D594" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="E594" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="F594" t="n">
-        <v>449323.0605</v>
-      </c>
-      <c r="G594" t="n">
-        <v>-8674399.851253549</v>
-      </c>
-      <c r="H594" t="n">
-        <v>0</v>
-      </c>
-      <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
-      <c r="L594" t="n">
-        <v>1</v>
-      </c>
-      <c r="M594" t="inlineStr"/>
-    </row>
-    <row r="595">
-      <c r="A595" s="1" t="n">
-        <v>593</v>
-      </c>
-      <c r="B595" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="C595" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="D595" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="E595" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="F595" t="n">
-        <v>308469.7466</v>
-      </c>
-      <c r="G595" t="n">
-        <v>-8674399.851253549</v>
-      </c>
-      <c r="H595" t="n">
-        <v>2</v>
-      </c>
-      <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
-      <c r="L595" t="n">
-        <v>1</v>
-      </c>
-      <c r="M595" t="inlineStr"/>
-    </row>
-    <row r="596">
-      <c r="A596" s="1" t="n">
-        <v>594</v>
-      </c>
-      <c r="B596" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="C596" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="D596" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="E596" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="F596" t="n">
-        <v>1002511.6502</v>
-      </c>
-      <c r="G596" t="n">
-        <v>-7671888.201053549</v>
-      </c>
-      <c r="H596" t="n">
-        <v>0</v>
-      </c>
-      <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
-      <c r="L596" t="n">
-        <v>1</v>
-      </c>
-      <c r="M596" t="inlineStr"/>
-    </row>
-    <row r="597">
-      <c r="A597" s="1" t="n">
-        <v>595</v>
-      </c>
-      <c r="B597" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="C597" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="D597" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="E597" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="F597" t="n">
-        <v>27426.2805</v>
-      </c>
-      <c r="G597" t="n">
-        <v>-7644461.920553548</v>
-      </c>
-      <c r="H597" t="n">
-        <v>0</v>
-      </c>
-      <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
-      <c r="L597" t="n">
-        <v>1</v>
-      </c>
-      <c r="M597" t="inlineStr"/>
-    </row>
-    <row r="598">
-      <c r="A598" s="1" t="n">
-        <v>596</v>
-      </c>
-      <c r="B598" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="C598" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="D598" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="E598" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="F598" t="n">
-        <v>331813.9786</v>
-      </c>
-      <c r="G598" t="n">
-        <v>-7644461.920553548</v>
-      </c>
-      <c r="H598" t="n">
-        <v>0</v>
-      </c>
-      <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
-      <c r="L598" t="n">
-        <v>1</v>
-      </c>
-      <c r="M598" t="inlineStr"/>
-    </row>
-    <row r="599">
-      <c r="A599" s="1" t="n">
-        <v>597</v>
-      </c>
-      <c r="B599" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="C599" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="D599" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="E599" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="F599" t="n">
-        <v>83551.8625</v>
-      </c>
-      <c r="G599" t="n">
-        <v>-7644461.920553548</v>
-      </c>
-      <c r="H599" t="n">
-        <v>0</v>
-      </c>
-      <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
-      <c r="L599" t="n">
-        <v>1</v>
-      </c>
-      <c r="M599" t="inlineStr"/>
-    </row>
-    <row r="600">
-      <c r="A600" s="1" t="n">
-        <v>598</v>
-      </c>
-      <c r="B600" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="C600" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="D600" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="E600" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="F600" t="n">
-        <v>666094.376</v>
-      </c>
-      <c r="G600" t="n">
-        <v>-7644461.920553548</v>
-      </c>
-      <c r="H600" t="n">
-        <v>0</v>
-      </c>
-      <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
-      <c r="L600" t="n">
-        <v>1</v>
-      </c>
-      <c r="M600" t="inlineStr"/>
-    </row>
-    <row r="601">
-      <c r="A601" s="1" t="n">
-        <v>599</v>
-      </c>
-      <c r="B601" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="C601" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="D601" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="E601" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="F601" t="n">
-        <v>18249.3356</v>
-      </c>
-      <c r="G601" t="n">
-        <v>-7662711.256153548</v>
-      </c>
-      <c r="H601" t="n">
-        <v>0</v>
-      </c>
-      <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
-      <c r="L601" t="n">
-        <v>1</v>
-      </c>
-      <c r="M601" t="inlineStr"/>
-    </row>
-    <row r="602">
-      <c r="A602" s="1" t="n">
-        <v>600</v>
-      </c>
-      <c r="B602" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="C602" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="D602" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="E602" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="F602" t="n">
-        <v>204176.4698</v>
-      </c>
-      <c r="G602" t="n">
-        <v>-7458534.786353548</v>
-      </c>
-      <c r="H602" t="n">
-        <v>0</v>
-      </c>
-      <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
-      <c r="L602" t="n">
-        <v>1</v>
-      </c>
-      <c r="M602" t="inlineStr"/>
-    </row>
-    <row r="603">
-      <c r="A603" s="1" t="n">
-        <v>601</v>
-      </c>
-      <c r="B603" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="C603" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="D603" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="E603" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="F603" t="n">
-        <v>3508336.4575</v>
-      </c>
-      <c r="G603" t="n">
-        <v>-7458534.786353548</v>
-      </c>
-      <c r="H603" t="n">
-        <v>0</v>
-      </c>
-      <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
-      <c r="L603" t="n">
-        <v>1</v>
-      </c>
-      <c r="M603" t="inlineStr"/>
-    </row>
-    <row r="604">
-      <c r="A604" s="1" t="n">
-        <v>602</v>
-      </c>
-      <c r="B604" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="C604" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="D604" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="E604" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="F604" t="n">
-        <v>898135.0512</v>
-      </c>
-      <c r="G604" t="n">
-        <v>-6560399.735153548</v>
-      </c>
-      <c r="H604" t="n">
-        <v>0</v>
-      </c>
-      <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
-      <c r="L604" t="n">
-        <v>1</v>
-      </c>
-      <c r="M604" t="inlineStr"/>
-    </row>
-    <row r="605">
-      <c r="A605" s="1" t="n">
-        <v>603</v>
-      </c>
-      <c r="B605" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="C605" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="D605" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="E605" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="F605" t="n">
-        <v>110825.9238</v>
-      </c>
-      <c r="G605" t="n">
-        <v>-6560399.735153548</v>
-      </c>
-      <c r="H605" t="n">
-        <v>0</v>
-      </c>
-      <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
-      <c r="L605" t="n">
-        <v>1</v>
-      </c>
-      <c r="M605" t="inlineStr"/>
-    </row>
-    <row r="606">
-      <c r="A606" s="1" t="n">
-        <v>604</v>
-      </c>
-      <c r="B606" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="C606" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="D606" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="E606" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="F606" t="n">
-        <v>1353489.9194</v>
-      </c>
-      <c r="G606" t="n">
-        <v>-6560399.735153548</v>
-      </c>
-      <c r="H606" t="n">
-        <v>0</v>
-      </c>
-      <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
-      <c r="L606" t="n">
-        <v>1</v>
-      </c>
-      <c r="M606" t="inlineStr"/>
-    </row>
-    <row r="607">
-      <c r="A607" s="1" t="n">
-        <v>605</v>
-      </c>
-      <c r="B607" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="C607" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="D607" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="E607" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="F607" t="n">
-        <v>174953.5834</v>
-      </c>
-      <c r="G607" t="n">
-        <v>-6560399.735153548</v>
-      </c>
-      <c r="H607" t="n">
-        <v>0</v>
-      </c>
-      <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
-      <c r="L607" t="n">
-        <v>1</v>
-      </c>
-      <c r="M607" t="inlineStr"/>
-    </row>
-    <row r="608">
-      <c r="A608" s="1" t="n">
-        <v>606</v>
-      </c>
-      <c r="B608" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="C608" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="D608" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="E608" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="F608" t="n">
-        <v>1500631.9676</v>
-      </c>
-      <c r="G608" t="n">
-        <v>-5059767.767553548</v>
-      </c>
-      <c r="H608" t="n">
-        <v>0</v>
-      </c>
-      <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
-      <c r="L608" t="n">
-        <v>1</v>
-      </c>
-      <c r="M608" t="inlineStr"/>
-    </row>
-    <row r="609">
-      <c r="A609" s="1" t="n">
-        <v>607</v>
-      </c>
-      <c r="B609" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="C609" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="D609" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="E609" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="F609" t="n">
-        <v>653207.8386</v>
-      </c>
-      <c r="G609" t="n">
-        <v>-4406559.928953548</v>
-      </c>
-      <c r="H609" t="n">
-        <v>0</v>
-      </c>
-      <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
-      <c r="L609" t="n">
-        <v>1</v>
-      </c>
-      <c r="M609" t="inlineStr"/>
-    </row>
-    <row r="610">
-      <c r="A610" s="1" t="n">
-        <v>608</v>
-      </c>
-      <c r="B610" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="C610" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="D610" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="E610" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="F610" t="n">
-        <v>762163.1356</v>
-      </c>
-      <c r="G610" t="n">
-        <v>-5168723.064553548</v>
-      </c>
-      <c r="H610" t="n">
-        <v>0</v>
-      </c>
-      <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
-        <v>1</v>
+        <v>1.037105263157895</v>
       </c>
       <c r="M610" t="inlineStr"/>
     </row>
@@ -21176,7 +21728,7 @@
         <v>-4913149.995053548</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -21209,7 +21761,7 @@
         <v>-5188943.442255558</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21242,7 +21794,7 @@
         <v>-5188943.442255558</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21275,7 +21827,7 @@
         <v>-5188943.442255558</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21308,7 +21860,7 @@
         <v>-5188943.442255558</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21341,7 +21893,7 @@
         <v>-5188943.442255558</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21374,7 +21926,7 @@
         <v>-5042418.815155558</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21407,7 +21959,7 @@
         <v>-5042418.815155558</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21440,7 +21992,7 @@
         <v>-5042418.815155558</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21473,7 +22025,7 @@
         <v>-5042418.815155558</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21506,7 +22058,7 @@
         <v>-5042418.815155558</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21539,7 +22091,7 @@
         <v>-5130657.622455559</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21572,7 +22124,7 @@
         <v>-5130657.622455559</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21605,7 +22157,7 @@
         <v>-5130657.622455559</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21638,7 +22190,7 @@
         <v>-5109034.104955559</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21671,7 +22223,7 @@
         <v>-5109034.104955559</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -21704,7 +22256,7 @@
         <v>-5212973.015055559</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -21737,7 +22289,7 @@
         <v>-4207824.310455559</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -21770,7 +22322,7 @@
         <v>-4207824.310455559</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -21803,7 +22355,7 @@
         <v>-4207824.310455559</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -21836,7 +22388,7 @@
         <v>-4207824.310455559</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -21869,7 +22421,7 @@
         <v>-4207824.310455559</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -21902,7 +22454,7 @@
         <v>-4207824.310455559</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -21935,7 +22487,7 @@
         <v>-4606959.447955559</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -21968,7 +22520,7 @@
         <v>-4382721.156655559</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -22001,7 +22553,7 @@
         <v>-4382721.156655559</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -22034,7 +22586,7 @@
         <v>-4382721.156655559</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -22067,7 +22619,7 @@
         <v>-4382721.156655559</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -22100,7 +22652,7 @@
         <v>-5216203.159140479</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -22133,7 +22685,7 @@
         <v>-5088762.922740479</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -22166,7 +22718,7 @@
         <v>-5088762.922740479</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -22199,7 +22751,7 @@
         <v>-5439059.116440479</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22232,7 +22784,7 @@
         <v>-5479132.131740479</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22265,7 +22817,7 @@
         <v>-5479132.131740479</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22298,7 +22850,7 @@
         <v>-5479132.131740479</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22331,7 +22883,7 @@
         <v>-4959346.698740479</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22364,7 +22916,7 @@
         <v>-4959346.698740479</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -22397,7 +22949,7 @@
         <v>-4966941.366740478</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -22430,7 +22982,7 @@
         <v>-4966941.366740478</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -22463,7 +23015,7 @@
         <v>-4600453.464938458</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -22496,7 +23048,7 @@
         <v>-4663247.964938458</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -22529,7 +23081,7 @@
         <v>-4642870.294138458</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -22562,7 +23114,7 @@
         <v>-5125459.391938457</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
